--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Documents\BacBase1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="F13Elox" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="FxxElox" sheetId="2" r:id="rId2"/>
+    <sheet name="F17Elox" sheetId="3" r:id="rId3"/>
+    <sheet name="F18Elox" sheetId="4" r:id="rId4"/>
+    <sheet name="Vergleich" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>MP1</t>
   </si>
@@ -79,12 +76,75 @@
   <si>
     <t>Mittlw.ger.</t>
   </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>FxxElox</t>
+  </si>
+  <si>
+    <t>F17 Elox</t>
+  </si>
+  <si>
+    <t>F18Elox</t>
+  </si>
+  <si>
+    <t>mitt</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Mitt ger.</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>fehl</t>
+  </si>
+  <si>
+    <t>fehl ger</t>
+  </si>
+  <si>
+    <t>mitt ger</t>
+  </si>
+  <si>
+    <t>Mitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand </t>
+  </si>
+  <si>
+    <t>Fehl</t>
+  </si>
+  <si>
+    <t>Fehl ger</t>
+  </si>
+  <si>
+    <t>Mitt ger</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>Fxx</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -155,6 +215,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -261,6 +323,1049 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15490598511251674"/>
+          <c:y val="5.2976318501091552E-2"/>
+          <c:w val="0.84481761895147733"/>
+          <c:h val="0.9383193350831146"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleich!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleich!$D$7:$M$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleich!$D$7:$M$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleich!$D$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleich!$D$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleich!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleich!$D$8:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleich!$D$8:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleich!$D$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleich!$D$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleich!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleich!$D$9:$M$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.9000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.16</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleich!$D$9:$M$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.9000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.13</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.16</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleich!$D$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleich!$D$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleich!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Vergleich!$D$10:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Vergleich!$D$10:$M$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleich!$D$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleich!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60152448"/>
+        <c:axId val="60031360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60152448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47968719074050176"/>
+              <c:y val="0.93668040806642749"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60031360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60031360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>X = (±∆) [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60152448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37391707184142975"/>
+          <c:y val="0.10087522764819919"/>
+          <c:w val="0.3000355693243264"/>
+          <c:h val="0.15090637049785849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Microsoft Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C4:M23" totalsRowCount="1">
   <autoFilter ref="C4:M22"/>
@@ -301,10 +1406,70 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C5:M30" totalsRowShown="0">
+  <autoFilter ref="C5:M30"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="C4:M29" totalsRowShown="0">
+  <autoFilter ref="C4:M29"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D5:N30" totalsRowShown="0">
+  <autoFilter ref="D5:N30"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr."/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,9 +1507,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,10 +1541,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,10 +1575,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,22 +1750,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1">
         <f>2.1/(SQRT(18))</f>
         <v>0.49497474683058335</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="21">
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
@@ -612,7 +1775,7 @@
       </c>
       <c r="T2" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -683,7 +1846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -754,7 +1917,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -825,7 +1988,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -896,7 +2059,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -967,7 +2130,7 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1038,7 +2201,7 @@
         <v>-2.63</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1109,7 +2272,7 @@
         <v>-2.57</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1180,7 +2343,7 @@
         <v>-2.4700000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1251,7 +2414,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1322,7 +2485,7 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1393,7 +2556,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1464,7 +2627,7 @@
         <v>-2.4900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1535,7 +2698,7 @@
         <v>-2.73</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1606,7 +2769,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1677,7 +2840,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1748,7 +2911,7 @@
         <v>-2.58</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1819,7 +2982,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1890,7 +3053,7 @@
         <v>-2.42</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1961,52 +3124,52 @@
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25">
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[Spalte1])</f>
+        <f>SUBTOTAL(101,[Spalte1])</f>
         <v>9.5</v>
       </c>
       <c r="D23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP1])</f>
+        <f>SUBTOTAL(101,[MP1])</f>
         <v>0.45333333333333337</v>
       </c>
       <c r="E23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP2])</f>
+        <f>SUBTOTAL(101,[MP2])</f>
         <v>0.52</v>
       </c>
       <c r="F23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP3])</f>
+        <f>SUBTOTAL(101,[MP3])</f>
         <v>-6.055555555555555E-2</v>
       </c>
       <c r="G23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP4])</f>
+        <f>SUBTOTAL(101,[MP4])</f>
         <v>-0.10722222222222226</v>
       </c>
       <c r="H23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP5])</f>
+        <f>SUBTOTAL(101,[MP5])</f>
         <v>-0.29444444444444445</v>
       </c>
       <c r="I23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP6])</f>
+        <f>SUBTOTAL(101,[MP6])</f>
         <v>-0.29888888888888882</v>
       </c>
       <c r="J23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP7])</f>
+        <f>SUBTOTAL(101,[MP7])</f>
         <v>-0.25222222222222229</v>
       </c>
       <c r="K23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP8])</f>
+        <f>SUBTOTAL(101,[MP8])</f>
         <v>-1.0100000000000002</v>
       </c>
       <c r="L23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP9])</f>
+        <f>SUBTOTAL(101,[MP9])</f>
         <v>-0.13888888888888892</v>
       </c>
       <c r="M23" s="2">
-        <f>SUBTOTAL(101,Tabelle1[MP10])</f>
+        <f>SUBTOTAL(101,[MP10])</f>
         <v>0.12166666666666669</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -2053,7 +3216,7 @@
         <v>-2.6088888888888886</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25">
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
@@ -2145,7 +3308,7 @@
         <v>0.21045857183188413</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +3357,7 @@
         <v>0.13993049745372543</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25">
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2232,7 +3395,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25">
       <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
@@ -2281,25 +3444,3244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:M29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <f>2.09/SQRT(20)</f>
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.6</v>
+      </c>
+      <c r="E6">
+        <v>0.65</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>-0.16</v>
+      </c>
+      <c r="H6">
+        <v>-0.44</v>
+      </c>
+      <c r="I6">
+        <v>-0.51</v>
+      </c>
+      <c r="J6">
+        <v>-0.32</v>
+      </c>
+      <c r="K6">
+        <v>-0.61</v>
+      </c>
+      <c r="L6">
+        <v>0.48</v>
+      </c>
+      <c r="M6">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1.86</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.22</v>
+      </c>
+      <c r="G7">
+        <v>-0.18</v>
+      </c>
+      <c r="H7">
+        <v>-0.5</v>
+      </c>
+      <c r="I7">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J7">
+        <v>-0.3</v>
+      </c>
+      <c r="K7">
+        <v>-0.81</v>
+      </c>
+      <c r="L7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M7">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1.59</v>
+      </c>
+      <c r="E8">
+        <v>0.66</v>
+      </c>
+      <c r="F8">
+        <v>0.03</v>
+      </c>
+      <c r="G8">
+        <v>-0.17</v>
+      </c>
+      <c r="H8">
+        <v>-0.54</v>
+      </c>
+      <c r="I8">
+        <v>-0.59</v>
+      </c>
+      <c r="J8">
+        <v>-0.37</v>
+      </c>
+      <c r="K8">
+        <v>-0.66</v>
+      </c>
+      <c r="L8">
+        <v>0.44</v>
+      </c>
+      <c r="M8">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1.62</v>
+      </c>
+      <c r="E9">
+        <v>0.95</v>
+      </c>
+      <c r="F9">
+        <v>0.17</v>
+      </c>
+      <c r="G9">
+        <v>-0.2</v>
+      </c>
+      <c r="H9">
+        <v>-0.48</v>
+      </c>
+      <c r="I9">
+        <v>-0.52</v>
+      </c>
+      <c r="J9">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K9">
+        <v>-0.88</v>
+      </c>
+      <c r="L9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1.68</v>
+      </c>
+      <c r="E10">
+        <v>0.97</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>-0.18</v>
+      </c>
+      <c r="H10">
+        <v>-0.46</v>
+      </c>
+      <c r="I10">
+        <v>-0.47</v>
+      </c>
+      <c r="J10">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K10">
+        <v>-0.84</v>
+      </c>
+      <c r="L10">
+        <v>-0.01</v>
+      </c>
+      <c r="M10">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1.68</v>
+      </c>
+      <c r="E11">
+        <v>0.67</v>
+      </c>
+      <c r="F11">
+        <v>0.04</v>
+      </c>
+      <c r="G11">
+        <v>-0.08</v>
+      </c>
+      <c r="H11">
+        <v>-0.4</v>
+      </c>
+      <c r="I11">
+        <v>-0.48</v>
+      </c>
+      <c r="J11">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K11">
+        <v>-0.65</v>
+      </c>
+      <c r="L11">
+        <v>0.33</v>
+      </c>
+      <c r="M11">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1.3</v>
+      </c>
+      <c r="E12">
+        <v>0.49</v>
+      </c>
+      <c r="F12">
+        <v>-0.05</v>
+      </c>
+      <c r="G12">
+        <v>-0.11</v>
+      </c>
+      <c r="H12">
+        <v>-0.41</v>
+      </c>
+      <c r="I12">
+        <v>-0.49</v>
+      </c>
+      <c r="J12">
+        <v>-0.32</v>
+      </c>
+      <c r="K12">
+        <v>-0.61</v>
+      </c>
+      <c r="L12">
+        <v>0.34</v>
+      </c>
+      <c r="M12">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1.46</v>
+      </c>
+      <c r="E13">
+        <v>0.88</v>
+      </c>
+      <c r="F13">
+        <v>0.17</v>
+      </c>
+      <c r="G13">
+        <v>-0.16</v>
+      </c>
+      <c r="H13">
+        <v>-0.43</v>
+      </c>
+      <c r="I13">
+        <v>-0.46</v>
+      </c>
+      <c r="J13">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K13">
+        <v>-0.88</v>
+      </c>
+      <c r="L13">
+        <v>-0.06</v>
+      </c>
+      <c r="M13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1.57</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <v>0.04</v>
+      </c>
+      <c r="G14">
+        <v>-0.1</v>
+      </c>
+      <c r="H14">
+        <v>-0.35</v>
+      </c>
+      <c r="I14">
+        <v>-0.44</v>
+      </c>
+      <c r="J14">
+        <v>-0.31</v>
+      </c>
+      <c r="K14">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L14">
+        <v>0.46</v>
+      </c>
+      <c r="M14">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1.3</v>
+      </c>
+      <c r="E15">
+        <v>0.53</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-0.11</v>
+      </c>
+      <c r="H15">
+        <v>-0.5</v>
+      </c>
+      <c r="I15">
+        <v>-0.48</v>
+      </c>
+      <c r="J15">
+        <v>-0.3</v>
+      </c>
+      <c r="K15">
+        <v>-0.61</v>
+      </c>
+      <c r="L15">
+        <v>0.37</v>
+      </c>
+      <c r="M15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1.57</v>
+      </c>
+      <c r="E16">
+        <v>0.84</v>
+      </c>
+      <c r="F16">
+        <v>0.18</v>
+      </c>
+      <c r="G16">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H16">
+        <v>-0.39</v>
+      </c>
+      <c r="I16">
+        <v>-0.44</v>
+      </c>
+      <c r="J16">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K16">
+        <v>-0.88</v>
+      </c>
+      <c r="L16">
+        <v>-0.08</v>
+      </c>
+      <c r="M16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1.38</v>
+      </c>
+      <c r="E17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-0.15</v>
+      </c>
+      <c r="H17">
+        <v>-0.41</v>
+      </c>
+      <c r="I17">
+        <v>-0.5</v>
+      </c>
+      <c r="J17">
+        <v>-0.34</v>
+      </c>
+      <c r="K17">
+        <v>-0.62</v>
+      </c>
+      <c r="L17">
+        <v>0.36</v>
+      </c>
+      <c r="M17">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>1.63</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>-0.16</v>
+      </c>
+      <c r="H18">
+        <v>-0.38</v>
+      </c>
+      <c r="I18">
+        <v>-0.41</v>
+      </c>
+      <c r="J18">
+        <v>-0.26</v>
+      </c>
+      <c r="K18">
+        <v>-0.86</v>
+      </c>
+      <c r="L18">
+        <v>-0.02</v>
+      </c>
+      <c r="M18">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.37</v>
+      </c>
+      <c r="F19">
+        <v>-0.09</v>
+      </c>
+      <c r="G19">
+        <v>-0.1</v>
+      </c>
+      <c r="H19">
+        <v>-0.35</v>
+      </c>
+      <c r="I19">
+        <v>-0.44</v>
+      </c>
+      <c r="J19">
+        <v>-0.33</v>
+      </c>
+      <c r="K19">
+        <v>-0.65</v>
+      </c>
+      <c r="L19">
+        <v>0.32</v>
+      </c>
+      <c r="M19">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>1.96</v>
+      </c>
+      <c r="E20">
+        <v>1.01</v>
+      </c>
+      <c r="F20">
+        <v>0.39</v>
+      </c>
+      <c r="G20">
+        <v>-0.06</v>
+      </c>
+      <c r="H20">
+        <v>-0.38</v>
+      </c>
+      <c r="I20">
+        <v>-0.45</v>
+      </c>
+      <c r="J20">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K20">
+        <v>-0.82</v>
+      </c>
+      <c r="L20">
+        <v>-0.01</v>
+      </c>
+      <c r="M20">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>1.33</v>
+      </c>
+      <c r="E21">
+        <v>0.53</v>
+      </c>
+      <c r="F21">
+        <v>-0.03</v>
+      </c>
+      <c r="G21">
+        <v>-0.11</v>
+      </c>
+      <c r="H21">
+        <v>-0.36</v>
+      </c>
+      <c r="I21">
+        <v>-0.42</v>
+      </c>
+      <c r="J21">
+        <v>-0.3</v>
+      </c>
+      <c r="K21">
+        <v>-0.66</v>
+      </c>
+      <c r="L21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M21">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1.51</v>
+      </c>
+      <c r="E22">
+        <v>0.85</v>
+      </c>
+      <c r="F22">
+        <v>0.15</v>
+      </c>
+      <c r="G22">
+        <v>-0.17</v>
+      </c>
+      <c r="H22">
+        <v>-0.42</v>
+      </c>
+      <c r="I22">
+        <v>-0.44</v>
+      </c>
+      <c r="J22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K22">
+        <v>-0.88</v>
+      </c>
+      <c r="L22">
+        <v>-0.09</v>
+      </c>
+      <c r="M22">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1.75</v>
+      </c>
+      <c r="E23">
+        <v>0.69</v>
+      </c>
+      <c r="F23">
+        <v>0.05</v>
+      </c>
+      <c r="G23">
+        <v>-0.15</v>
+      </c>
+      <c r="H23">
+        <v>-0.46</v>
+      </c>
+      <c r="I23">
+        <v>-0.52</v>
+      </c>
+      <c r="J23">
+        <v>-0.31</v>
+      </c>
+      <c r="K23">
+        <v>-0.59</v>
+      </c>
+      <c r="L23">
+        <v>0.46</v>
+      </c>
+      <c r="M23">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>1.63</v>
+      </c>
+      <c r="E24">
+        <v>0.64</v>
+      </c>
+      <c r="F24">
+        <v>0.04</v>
+      </c>
+      <c r="G24">
+        <v>-0.15</v>
+      </c>
+      <c r="H24">
+        <v>-0.46</v>
+      </c>
+      <c r="I24">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="J24">
+        <v>-0.33</v>
+      </c>
+      <c r="K24">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="L24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M24">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2.14</v>
+      </c>
+      <c r="E25">
+        <v>1.08</v>
+      </c>
+      <c r="F25">
+        <v>0.27</v>
+      </c>
+      <c r="G25">
+        <v>-0.15</v>
+      </c>
+      <c r="H25">
+        <v>-0.45</v>
+      </c>
+      <c r="I25">
+        <v>-0.49</v>
+      </c>
+      <c r="J25">
+        <v>-0.26</v>
+      </c>
+      <c r="K25">
+        <v>-0.73</v>
+      </c>
+      <c r="L25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M25">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <f>SUBTOTAL(101,D6:D25)</f>
+        <v>1.5825</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ref="E26:M26" si="0">SUBTOTAL(101,E6:E25)</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.13949999999999996</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.42849999999999994</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.4830000000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.30249999999999999</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.71800000000000019</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21800000000000003</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2369999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <f>STDEV(D6:D25)</f>
+        <v>0.24183236908412872</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:M27" si="1">STDEV(E6:E25)</f>
+        <v>0.20366122541328832</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12309495692778252</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7059695797882576E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3140825816138264E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8242806935880012E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7120588411564762E-2</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12271490279677109</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22500526309633878</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22799122790142562</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2">
+        <f>D27*$A$1</f>
+        <v>0.11301750583427345</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:M28" si="2">E27*$A$1</f>
+        <v>9.5178671980649249E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>5.752697649798745E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7319411797171506E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4834738271220427E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2545706908411442E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2674487169112836E-2</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="2"/>
+        <v>5.7349362681724574E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10515355628793541</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10654901172699799</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-0.439</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-0.48299999999999998</v>
+      </c>
+      <c r="J30" s="2">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="K30" s="2">
+        <v>-0.72</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:M28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.94</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>-0.11</v>
+      </c>
+      <c r="H5">
+        <v>-0.45</v>
+      </c>
+      <c r="I5">
+        <v>-0.5</v>
+      </c>
+      <c r="J5">
+        <v>-0.31</v>
+      </c>
+      <c r="K5">
+        <v>-0.41</v>
+      </c>
+      <c r="L5">
+        <v>0.82</v>
+      </c>
+      <c r="M5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2.33</v>
+      </c>
+      <c r="E6">
+        <v>0.93</v>
+      </c>
+      <c r="F6">
+        <v>0.17</v>
+      </c>
+      <c r="G6">
+        <v>-0.15</v>
+      </c>
+      <c r="H6">
+        <v>-0.5</v>
+      </c>
+      <c r="I6">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J6">
+        <v>-0.32</v>
+      </c>
+      <c r="K6">
+        <v>-0.39</v>
+      </c>
+      <c r="L6">
+        <v>0.91</v>
+      </c>
+      <c r="M6">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2.59</v>
+      </c>
+      <c r="E7">
+        <v>1.29</v>
+      </c>
+      <c r="F7">
+        <v>0.34</v>
+      </c>
+      <c r="G7">
+        <v>-0.19</v>
+      </c>
+      <c r="H7">
+        <v>-0.5</v>
+      </c>
+      <c r="I7">
+        <v>-0.51</v>
+      </c>
+      <c r="J7">
+        <v>-0.26</v>
+      </c>
+      <c r="K7">
+        <v>-0.69</v>
+      </c>
+      <c r="L7">
+        <v>0.33</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2.27</v>
+      </c>
+      <c r="E8">
+        <v>0.94</v>
+      </c>
+      <c r="F8">
+        <v>0.18</v>
+      </c>
+      <c r="G8">
+        <v>-0.15</v>
+      </c>
+      <c r="H8">
+        <v>-0.48</v>
+      </c>
+      <c r="I8">
+        <v>-0.53</v>
+      </c>
+      <c r="J8">
+        <v>-0.31</v>
+      </c>
+      <c r="K8">
+        <v>-0.48</v>
+      </c>
+      <c r="L8">
+        <v>0.69</v>
+      </c>
+      <c r="M8">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2.34</v>
+      </c>
+      <c r="E9">
+        <v>1.19</v>
+      </c>
+      <c r="F9">
+        <v>0.35</v>
+      </c>
+      <c r="G9">
+        <v>-0.18</v>
+      </c>
+      <c r="H9">
+        <v>-0.5</v>
+      </c>
+      <c r="I9">
+        <v>-0.52</v>
+      </c>
+      <c r="J9">
+        <v>-0.3</v>
+      </c>
+      <c r="K9">
+        <v>-0.72</v>
+      </c>
+      <c r="L9">
+        <v>0.31</v>
+      </c>
+      <c r="M9">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2.46</v>
+      </c>
+      <c r="E10">
+        <v>0.95</v>
+      </c>
+      <c r="F10">
+        <v>0.22</v>
+      </c>
+      <c r="G10">
+        <v>-0.17</v>
+      </c>
+      <c r="H10">
+        <v>-0.52</v>
+      </c>
+      <c r="I10">
+        <v>-0.59</v>
+      </c>
+      <c r="J10">
+        <v>-0.33</v>
+      </c>
+      <c r="K10">
+        <v>-0.41</v>
+      </c>
+      <c r="L10">
+        <v>0.84</v>
+      </c>
+      <c r="M10">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2.68</v>
+      </c>
+      <c r="E11">
+        <v>1.22</v>
+      </c>
+      <c r="F11">
+        <v>0.39</v>
+      </c>
+      <c r="G11">
+        <v>-0.16</v>
+      </c>
+      <c r="H11">
+        <v>-0.51</v>
+      </c>
+      <c r="I11">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="J11">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K11">
+        <v>-0.6</v>
+      </c>
+      <c r="L11">
+        <v>0.39</v>
+      </c>
+      <c r="M11">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2.36</v>
+      </c>
+      <c r="E12">
+        <v>0.84</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>-0.11</v>
+      </c>
+      <c r="H12">
+        <v>-0.46</v>
+      </c>
+      <c r="I12">
+        <v>-0.53</v>
+      </c>
+      <c r="J12">
+        <v>-0.3</v>
+      </c>
+      <c r="K12">
+        <v>-0.4</v>
+      </c>
+      <c r="L12">
+        <v>0.81</v>
+      </c>
+      <c r="M12">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2.67</v>
+      </c>
+      <c r="E13">
+        <v>1.23</v>
+      </c>
+      <c r="F13">
+        <v>0.97</v>
+      </c>
+      <c r="G13">
+        <v>-0.17</v>
+      </c>
+      <c r="H13">
+        <v>-0.33</v>
+      </c>
+      <c r="I13">
+        <v>-0.23</v>
+      </c>
+      <c r="J13">
+        <v>0.6</v>
+      </c>
+      <c r="K13">
+        <v>0.47</v>
+      </c>
+      <c r="L13">
+        <v>1.3</v>
+      </c>
+      <c r="M13">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.92</v>
+      </c>
+      <c r="F14">
+        <v>0.24</v>
+      </c>
+      <c r="G14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>-0.47</v>
+      </c>
+      <c r="I14">
+        <v>-0.52</v>
+      </c>
+      <c r="J14">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K14">
+        <v>-0.46</v>
+      </c>
+      <c r="L14">
+        <v>0.7</v>
+      </c>
+      <c r="M14">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2.62</v>
+      </c>
+      <c r="E15">
+        <v>1.26</v>
+      </c>
+      <c r="F15">
+        <v>0.38</v>
+      </c>
+      <c r="G15">
+        <v>-0.18</v>
+      </c>
+      <c r="H15">
+        <v>-0.5</v>
+      </c>
+      <c r="I15">
+        <v>-0.42</v>
+      </c>
+      <c r="J15">
+        <v>0.03</v>
+      </c>
+      <c r="K15">
+        <v>-0.11</v>
+      </c>
+      <c r="L15">
+        <v>0.74</v>
+      </c>
+      <c r="M15">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2.35</v>
+      </c>
+      <c r="E16">
+        <v>0.88</v>
+      </c>
+      <c r="F16">
+        <v>0.22</v>
+      </c>
+      <c r="G16">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H16">
+        <v>-0.44</v>
+      </c>
+      <c r="I16">
+        <v>-0.5</v>
+      </c>
+      <c r="J16">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K16">
+        <v>-0.36</v>
+      </c>
+      <c r="L16">
+        <v>0.87</v>
+      </c>
+      <c r="M16">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>2.69</v>
+      </c>
+      <c r="E17">
+        <v>1.42</v>
+      </c>
+      <c r="F17">
+        <v>0.63</v>
+      </c>
+      <c r="G17">
+        <v>-0.13</v>
+      </c>
+      <c r="H17">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I17">
+        <v>-0.51</v>
+      </c>
+      <c r="J17">
+        <v>0.24</v>
+      </c>
+      <c r="K17">
+        <v>-0.72</v>
+      </c>
+      <c r="L17">
+        <v>0.31</v>
+      </c>
+      <c r="M17">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>2.68</v>
+      </c>
+      <c r="E18">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.47</v>
+      </c>
+      <c r="G18">
+        <v>-0.09</v>
+      </c>
+      <c r="H18">
+        <v>-0.46</v>
+      </c>
+      <c r="I18">
+        <v>-0.52</v>
+      </c>
+      <c r="J18">
+        <v>-0.37</v>
+      </c>
+      <c r="K18">
+        <v>-0.49</v>
+      </c>
+      <c r="L18">
+        <v>1.05</v>
+      </c>
+      <c r="M18">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>2.65</v>
+      </c>
+      <c r="E19">
+        <v>1.44</v>
+      </c>
+      <c r="F19">
+        <v>0.64</v>
+      </c>
+      <c r="G19">
+        <v>-0.16</v>
+      </c>
+      <c r="H19">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="I19">
+        <v>-0.54</v>
+      </c>
+      <c r="J19">
+        <v>-0.25</v>
+      </c>
+      <c r="K19">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L19">
+        <v>0.65</v>
+      </c>
+      <c r="M19">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2.6</v>
+      </c>
+      <c r="E20">
+        <v>0.99</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <v>-0.02</v>
+      </c>
+      <c r="H20">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I20">
+        <v>-0.67</v>
+      </c>
+      <c r="J20">
+        <v>-0.36</v>
+      </c>
+      <c r="K20">
+        <v>-0.49</v>
+      </c>
+      <c r="L20">
+        <v>0.82</v>
+      </c>
+      <c r="M20">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2.7</v>
+      </c>
+      <c r="E21">
+        <v>1.37</v>
+      </c>
+      <c r="F21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G21">
+        <v>-0.13</v>
+      </c>
+      <c r="H21">
+        <v>-0.61</v>
+      </c>
+      <c r="I21">
+        <v>-0.52</v>
+      </c>
+      <c r="J21">
+        <v>-0.24</v>
+      </c>
+      <c r="K21">
+        <v>-0.78</v>
+      </c>
+      <c r="L21">
+        <v>0.49</v>
+      </c>
+      <c r="M21">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>2.56</v>
+      </c>
+      <c r="E22">
+        <v>0.99</v>
+      </c>
+      <c r="F22">
+        <v>0.33</v>
+      </c>
+      <c r="G22">
+        <v>-0.04</v>
+      </c>
+      <c r="H22">
+        <v>-0.53</v>
+      </c>
+      <c r="I22">
+        <v>-0.44</v>
+      </c>
+      <c r="J22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K22">
+        <v>-0.51</v>
+      </c>
+      <c r="L22">
+        <v>0.8</v>
+      </c>
+      <c r="M22">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>2.7</v>
+      </c>
+      <c r="E23">
+        <v>1.31</v>
+      </c>
+      <c r="F23">
+        <v>0.35</v>
+      </c>
+      <c r="G23">
+        <v>-0.23</v>
+      </c>
+      <c r="H23">
+        <v>-0.51</v>
+      </c>
+      <c r="I23">
+        <v>-0.48</v>
+      </c>
+      <c r="J23">
+        <v>-0.19</v>
+      </c>
+      <c r="K23">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="L23">
+        <v>0.37</v>
+      </c>
+      <c r="M23">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2.58</v>
+      </c>
+      <c r="E24">
+        <v>1.26</v>
+      </c>
+      <c r="F24">
+        <v>0.31</v>
+      </c>
+      <c r="G24">
+        <v>-0.25</v>
+      </c>
+      <c r="H24">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="I24">
+        <v>-0.6</v>
+      </c>
+      <c r="J24">
+        <v>-0.31</v>
+      </c>
+      <c r="K24">
+        <v>-0.69</v>
+      </c>
+      <c r="L24">
+        <v>0.24</v>
+      </c>
+      <c r="M24">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUBTOTAL(101,D5:D24)</f>
+        <v>2.5290000000000008</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:M25" si="0">SUBTOTAL(101,E5:E24)</f>
+        <v>1.1254999999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37349999999999994</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.502</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.51200000000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.20600000000000002</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.46750000000000014</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4675000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <f>STDEV(D5:D24)</f>
+        <v>0.15532309280300863</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ref="E26:M26" si="1">STDEV(E5:E24)</f>
+        <v>0.19540713233764312</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2003227658712704</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4820280534622783E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1353162317160648E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>8.544619729150621E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23671879831074727</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27101903215359896</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28250011644152223</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.322814514119663</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D26*$A$1</f>
+        <v>7.2588415742454448E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:M27" si="2">E26*$A$1</f>
+        <v>9.1321218919810876E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3618482283147508E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5619611628594236E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8672676889331689E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9932272662597253E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11062773883615269</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12665754863015452</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13202309797910358</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1508635563182826</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.502</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-0.51</v>
+      </c>
+      <c r="J29" s="2">
+        <v>-0.21</v>
+      </c>
+      <c r="K29" s="2">
+        <v>-0.47</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1">
+        <v>0.46733820729745601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F6">
+        <v>1.18</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>-0.02</v>
+      </c>
+      <c r="I6">
+        <v>-0.27</v>
+      </c>
+      <c r="J6">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K6">
+        <v>-0.16</v>
+      </c>
+      <c r="L6">
+        <v>-0.3</v>
+      </c>
+      <c r="M6">
+        <v>1.19</v>
+      </c>
+      <c r="N6">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4.68</v>
+      </c>
+      <c r="F7">
+        <v>1.45</v>
+      </c>
+      <c r="G7">
+        <v>0.37</v>
+      </c>
+      <c r="H7">
+        <v>-0.12</v>
+      </c>
+      <c r="I7">
+        <v>-0.46</v>
+      </c>
+      <c r="J7">
+        <v>-0.46</v>
+      </c>
+      <c r="K7">
+        <v>-0.26</v>
+      </c>
+      <c r="L7">
+        <v>-0.22</v>
+      </c>
+      <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4.41</v>
+      </c>
+      <c r="F8">
+        <v>1.67</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>-0.17</v>
+      </c>
+      <c r="I8">
+        <v>-0.44</v>
+      </c>
+      <c r="J8">
+        <v>-0.39</v>
+      </c>
+      <c r="K8">
+        <v>-0.18</v>
+      </c>
+      <c r="L8">
+        <v>-0.48</v>
+      </c>
+      <c r="M8">
+        <v>0.83</v>
+      </c>
+      <c r="N8">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4.08</v>
+      </c>
+      <c r="F9">
+        <v>1.3</v>
+      </c>
+      <c r="G9">
+        <v>0.38</v>
+      </c>
+      <c r="H9">
+        <v>-0.11</v>
+      </c>
+      <c r="I9">
+        <v>-0.47</v>
+      </c>
+      <c r="J9">
+        <v>-0.47</v>
+      </c>
+      <c r="K9">
+        <v>-0.23</v>
+      </c>
+      <c r="L9">
+        <v>-0.22</v>
+      </c>
+      <c r="M9">
+        <v>1.21</v>
+      </c>
+      <c r="N9">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4.32</v>
+      </c>
+      <c r="F10">
+        <v>1.33</v>
+      </c>
+      <c r="G10">
+        <v>0.34</v>
+      </c>
+      <c r="H10">
+        <v>-0.1</v>
+      </c>
+      <c r="I10">
+        <v>-0.46</v>
+      </c>
+      <c r="J10">
+        <v>-0.46</v>
+      </c>
+      <c r="K10">
+        <v>-0.23</v>
+      </c>
+      <c r="L10">
+        <v>-0.21</v>
+      </c>
+      <c r="M10">
+        <v>1.37</v>
+      </c>
+      <c r="N10">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4.96</v>
+      </c>
+      <c r="F11">
+        <v>1.66</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>-0.12</v>
+      </c>
+      <c r="I11">
+        <v>-0.35</v>
+      </c>
+      <c r="J11">
+        <v>-0.3</v>
+      </c>
+      <c r="K11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L11">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="M11">
+        <v>0.72</v>
+      </c>
+      <c r="N11">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4.38</v>
+      </c>
+      <c r="F12">
+        <v>1.41</v>
+      </c>
+      <c r="G12">
+        <v>0.37</v>
+      </c>
+      <c r="H12">
+        <v>-0.1</v>
+      </c>
+      <c r="I12">
+        <v>-0.43</v>
+      </c>
+      <c r="J12">
+        <v>-0.41</v>
+      </c>
+      <c r="K12">
+        <v>-0.23</v>
+      </c>
+      <c r="L12">
+        <v>-0.22</v>
+      </c>
+      <c r="M12">
+        <v>1.32</v>
+      </c>
+      <c r="N12">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>4.46</v>
+      </c>
+      <c r="F13">
+        <v>1.66</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>-0.17</v>
+      </c>
+      <c r="I13">
+        <v>-0.43</v>
+      </c>
+      <c r="J13">
+        <v>-0.39</v>
+      </c>
+      <c r="K13">
+        <v>-0.21</v>
+      </c>
+      <c r="L13">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="M13">
+        <v>0.72</v>
+      </c>
+      <c r="N13">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>4.42</v>
+      </c>
+      <c r="F14">
+        <v>1.4</v>
+      </c>
+      <c r="G14">
+        <v>0.34</v>
+      </c>
+      <c r="H14">
+        <v>-0.12</v>
+      </c>
+      <c r="I14">
+        <v>-0.42</v>
+      </c>
+      <c r="J14">
+        <v>-0.44</v>
+      </c>
+      <c r="K14">
+        <v>-0.24</v>
+      </c>
+      <c r="L14">
+        <v>-0.16</v>
+      </c>
+      <c r="M14">
+        <v>1.44</v>
+      </c>
+      <c r="N14">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>4.34</v>
+      </c>
+      <c r="F15">
+        <v>1.53</v>
+      </c>
+      <c r="G15">
+        <v>0.42</v>
+      </c>
+      <c r="H15">
+        <v>-0.13</v>
+      </c>
+      <c r="I15">
+        <v>-0.36</v>
+      </c>
+      <c r="J15">
+        <v>-0.33</v>
+      </c>
+      <c r="K15">
+        <v>-0.18</v>
+      </c>
+      <c r="L15">
+        <v>-0.53</v>
+      </c>
+      <c r="M15">
+        <v>0.76</v>
+      </c>
+      <c r="N15">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>4.41</v>
+      </c>
+      <c r="F16">
+        <v>1.7</v>
+      </c>
+      <c r="G16">
+        <v>0.51</v>
+      </c>
+      <c r="H16">
+        <v>-0.16</v>
+      </c>
+      <c r="I16">
+        <v>-0.44</v>
+      </c>
+      <c r="J16">
+        <v>-0.39</v>
+      </c>
+      <c r="K16">
+        <v>-0.22</v>
+      </c>
+      <c r="L16">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M16">
+        <v>0.76</v>
+      </c>
+      <c r="N16">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>4.43</v>
+      </c>
+      <c r="F17">
+        <v>1.41</v>
+      </c>
+      <c r="G17">
+        <v>0.32</v>
+      </c>
+      <c r="H17">
+        <v>-0.15</v>
+      </c>
+      <c r="I17">
+        <v>-0.52</v>
+      </c>
+      <c r="J17">
+        <v>-0.54</v>
+      </c>
+      <c r="K17">
+        <v>-0.3</v>
+      </c>
+      <c r="L17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="M17">
+        <v>1.31</v>
+      </c>
+      <c r="N17">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>4.45</v>
+      </c>
+      <c r="F18">
+        <v>1.61</v>
+      </c>
+      <c r="G18">
+        <v>0.43</v>
+      </c>
+      <c r="H18">
+        <v>-0.17</v>
+      </c>
+      <c r="I18">
+        <v>-0.44</v>
+      </c>
+      <c r="J18">
+        <v>-0.42</v>
+      </c>
+      <c r="K18">
+        <v>-0.21</v>
+      </c>
+      <c r="L18">
+        <v>-0.51</v>
+      </c>
+      <c r="M18">
+        <v>0.91</v>
+      </c>
+      <c r="N18">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>4.34</v>
+      </c>
+      <c r="F19">
+        <v>1.27</v>
+      </c>
+      <c r="G19">
+        <v>0.26</v>
+      </c>
+      <c r="H19">
+        <v>-0.13</v>
+      </c>
+      <c r="I19">
+        <v>-0.43</v>
+      </c>
+      <c r="J19">
+        <v>-0.44</v>
+      </c>
+      <c r="K19">
+        <v>-0.24</v>
+      </c>
+      <c r="L19">
+        <v>-0.17</v>
+      </c>
+      <c r="M19">
+        <v>1.47</v>
+      </c>
+      <c r="N19">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F20">
+        <v>1.26</v>
+      </c>
+      <c r="G20">
+        <v>0.27</v>
+      </c>
+      <c r="H20">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I20">
+        <v>-0.48</v>
+      </c>
+      <c r="J20">
+        <v>-0.47</v>
+      </c>
+      <c r="K20">
+        <v>-0.27</v>
+      </c>
+      <c r="L20">
+        <v>-0.22</v>
+      </c>
+      <c r="M20">
+        <v>1.42</v>
+      </c>
+      <c r="N20">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>4.41</v>
+      </c>
+      <c r="F21">
+        <v>1.66</v>
+      </c>
+      <c r="G21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H21">
+        <v>-0.16</v>
+      </c>
+      <c r="I21">
+        <v>-0.49</v>
+      </c>
+      <c r="J21">
+        <v>-0.46</v>
+      </c>
+      <c r="K21">
+        <v>-0.21</v>
+      </c>
+      <c r="L21">
+        <v>-0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.77</v>
+      </c>
+      <c r="N21">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>4.66</v>
+      </c>
+      <c r="F22">
+        <v>1.42</v>
+      </c>
+      <c r="G22">
+        <v>0.35</v>
+      </c>
+      <c r="H22">
+        <v>-0.13</v>
+      </c>
+      <c r="I22">
+        <v>-0.48</v>
+      </c>
+      <c r="J22">
+        <v>-0.47</v>
+      </c>
+      <c r="K22">
+        <v>-0.25</v>
+      </c>
+      <c r="L22">
+        <v>-0.23</v>
+      </c>
+      <c r="M22">
+        <v>1.37</v>
+      </c>
+      <c r="N22">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F23">
+        <v>1.61</v>
+      </c>
+      <c r="G23">
+        <v>0.48</v>
+      </c>
+      <c r="H23">
+        <v>-0.15</v>
+      </c>
+      <c r="I23">
+        <v>-0.37</v>
+      </c>
+      <c r="J23">
+        <v>-0.27</v>
+      </c>
+      <c r="K23">
+        <v>-0.03</v>
+      </c>
+      <c r="L23">
+        <v>-0.39</v>
+      </c>
+      <c r="M23">
+        <v>0.87</v>
+      </c>
+      <c r="N23">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>4.26</v>
+      </c>
+      <c r="F24">
+        <v>1.26</v>
+      </c>
+      <c r="G24">
+        <v>0.26</v>
+      </c>
+      <c r="H24">
+        <v>-0.13</v>
+      </c>
+      <c r="I24">
+        <v>-0.48</v>
+      </c>
+      <c r="J24">
+        <v>-0.45</v>
+      </c>
+      <c r="K24">
+        <v>-0.25</v>
+      </c>
+      <c r="L24">
+        <v>-0.24</v>
+      </c>
+      <c r="M24">
+        <v>1.38</v>
+      </c>
+      <c r="N24">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14">
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>4.47</v>
+      </c>
+      <c r="F25">
+        <v>1.71</v>
+      </c>
+      <c r="G25">
+        <v>0.54</v>
+      </c>
+      <c r="H25">
+        <v>-0.16</v>
+      </c>
+      <c r="I25">
+        <v>-0.43</v>
+      </c>
+      <c r="J25">
+        <v>-0.36</v>
+      </c>
+      <c r="K25">
+        <v>-0.18</v>
+      </c>
+      <c r="L25">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="M25">
+        <v>0.81</v>
+      </c>
+      <c r="N25">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2">
+        <f>SUBTOTAL(101,E6:E25)</f>
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ref="F26:N26" si="0">SUBTOTAL(101,F6:F25)</f>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.4325</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1014999999999999</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0075000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14">
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2">
+        <f>STDEV(E6:E25)</f>
+        <v>0.17887072662150952</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ref="F27:N27" si="1">STDEV(F6:F25)</f>
+        <v>0.17425027372930171</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1004660193927857</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4732057086698589E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7754015581511185E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1598294598919282E-2</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>5.757375132910187E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15544164584550019</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29528353902825849</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41230896692956437</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E27*$A$1</f>
+        <v>8.3593124717289594E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ref="F28:N28" si="2">F27*$A$1</f>
+        <v>8.1433810545742863E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6951609397335919E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.623161729465062E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6990658106092778E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3460618643414063E-2</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6906413733531993E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2643820108802104E-2</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13799727977391471</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19268773345752868</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14">
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14">
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-0.433</v>
+      </c>
+      <c r="J30" s="2">
+        <v>-0.41</v>
+      </c>
+      <c r="K30" s="2">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="L30" s="2">
+        <v>-0.36</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>0.45</v>
+      </c>
+      <c r="E3">
+        <v>0.52</v>
+      </c>
+      <c r="F3">
+        <v>-0.06</v>
+      </c>
+      <c r="G3">
+        <v>-0.107</v>
+      </c>
+      <c r="H3">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I3">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="J3">
+        <v>-0.252</v>
+      </c>
+      <c r="K3">
+        <v>-1.01</v>
+      </c>
+      <c r="L3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>1.58</v>
+      </c>
+      <c r="E4">
+        <v>0.74</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H4">
+        <v>-0.439</v>
+      </c>
+      <c r="I4">
+        <v>-0.48299999999999998</v>
+      </c>
+      <c r="J4">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="K4">
+        <v>-0.72</v>
+      </c>
+      <c r="L4">
+        <v>0.22</v>
+      </c>
+      <c r="M4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.37</v>
+      </c>
+      <c r="G5">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="H5">
+        <v>-0.502</v>
+      </c>
+      <c r="I5">
+        <v>-0.51</v>
+      </c>
+      <c r="J5">
+        <v>-0.21</v>
+      </c>
+      <c r="K5">
+        <v>-0.47</v>
+      </c>
+      <c r="L5">
+        <v>0.67</v>
+      </c>
+      <c r="M5">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>4.43</v>
+      </c>
+      <c r="E6">
+        <v>1.48</v>
+      </c>
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+      <c r="G6">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="H6">
+        <v>-0.433</v>
+      </c>
+      <c r="I6">
+        <v>-0.41</v>
+      </c>
+      <c r="J6">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="K6">
+        <v>-0.36</v>
+      </c>
+      <c r="L6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.15</v>
+      </c>
+      <c r="F7">
+        <v>0.09</v>
+      </c>
+      <c r="G7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.06</v>
+      </c>
+      <c r="I7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.09</v>
+      </c>
+      <c r="L7">
+        <v>0.15</v>
+      </c>
+      <c r="M7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>0.06</v>
+      </c>
+      <c r="G8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.06</v>
+      </c>
+      <c r="L8">
+        <v>0.11</v>
+      </c>
+      <c r="M8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.04</v>
+      </c>
+      <c r="J9">
+        <v>0.12</v>
+      </c>
+      <c r="K9">
+        <v>0.13</v>
+      </c>
+      <c r="L9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <v>0.09</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.04</v>
+      </c>
+      <c r="J10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.08</v>
+      </c>
+      <c r="L10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -333,9 +333,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15490598511251674"/>
+          <c:x val="0.15490598511251683"/>
           <c:y val="5.2976318501091552E-2"/>
-          <c:w val="0.84481761895147733"/>
+          <c:w val="0.84481761895147756"/>
           <c:h val="0.9383193350831146"/>
         </c:manualLayout>
       </c:layout>
@@ -1174,11 +1174,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60152448"/>
-        <c:axId val="60031360"/>
+        <c:axId val="56494336"/>
+        <c:axId val="56557952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60152448"/>
+        <c:axId val="56494336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,8 +1207,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.47968719074050176"/>
-              <c:y val="0.93668040806642749"/>
+              <c:x val="0.45782926724323397"/>
+              <c:y val="0.90769489766984546"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1225,14 +1225,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60031360"/>
+        <c:crossAx val="56557952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60031360"/>
+        <c:axId val="56557952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>X = (±∆) [mm]</a:t>
+                  <a:t>x = ( ± ∆) [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1273,7 +1273,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60152448"/>
+        <c:crossAx val="56494336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1301,10 +1301,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37391707184142975"/>
-          <c:y val="0.10087522764819919"/>
-          <c:w val="0.3000355693243264"/>
-          <c:h val="0.15090637049785849"/>
+          <c:x val="0.37391707184142992"/>
+          <c:y val="0.10087522764819921"/>
+          <c:w val="0.30003556932432651"/>
+          <c:h val="0.15090637049785857"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1325,7 +1325,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1753,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
@@ -3447,7 +3447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29:M29"/>
     </sheetView>
   </sheetViews>
@@ -4420,7 +4420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28:M28"/>
     </sheetView>
   </sheetViews>
@@ -6356,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="F13Elox" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="F17Elox" sheetId="3" r:id="rId3"/>
     <sheet name="F18Elox" sheetId="4" r:id="rId4"/>
     <sheet name="Vergleich" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
   <si>
     <t>MP1</t>
   </si>
@@ -135,6 +136,36 @@
   </si>
   <si>
     <t>F18</t>
+  </si>
+  <si>
+    <t>ProzezzDiff</t>
+  </si>
+  <si>
+    <t>Mater.</t>
+  </si>
+  <si>
+    <t>fräs</t>
+  </si>
+  <si>
+    <t>polier</t>
+  </si>
+  <si>
+    <t>verz</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>auss</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>MittVerz</t>
   </si>
 </sst>
 </file>
@@ -333,9 +364,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15490598511251683"/>
+          <c:x val="0.15490598511251694"/>
           <c:y val="5.2976318501091552E-2"/>
-          <c:w val="0.84481761895147756"/>
+          <c:w val="0.84481761895147789"/>
           <c:h val="0.9383193350831146"/>
         </c:manualLayout>
       </c:layout>
@@ -1174,11 +1205,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56494336"/>
-        <c:axId val="56557952"/>
+        <c:axId val="54728192"/>
+        <c:axId val="54730112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56494336"/>
+        <c:axId val="54728192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,8 +1238,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45782926724323397"/>
-              <c:y val="0.90769489766984546"/>
+              <c:x val="0.45782926724323414"/>
+              <c:y val="0.90769489766984601"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1225,14 +1256,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56557952"/>
+        <c:crossAx val="54730112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56557952"/>
+        <c:axId val="54730112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1288,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1273,7 +1303,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56494336"/>
+        <c:crossAx val="54728192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1301,10 +1331,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37391707184142992"/>
-          <c:y val="0.10087522764819921"/>
-          <c:w val="0.30003556932432651"/>
-          <c:h val="0.15090637049785857"/>
+          <c:x val="0.37391707184143003"/>
+          <c:y val="0.10087522764819924"/>
+          <c:w val="0.30003556932432662"/>
+          <c:h val="0.15090637049785868"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1325,7 +1355,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6356,7 +6386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
@@ -6684,4 +6714,661 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D6:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="4:15">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>0.13</v>
+      </c>
+      <c r="G7">
+        <v>0.38</v>
+      </c>
+      <c r="H7">
+        <v>-0.12</v>
+      </c>
+      <c r="I7">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="J7">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="L7">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="M7">
+        <v>-1.06</v>
+      </c>
+      <c r="N7">
+        <v>-0.38</v>
+      </c>
+      <c r="O7">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>0.42</v>
+      </c>
+      <c r="G8">
+        <v>0.51</v>
+      </c>
+      <c r="H8">
+        <v>-0.05</v>
+      </c>
+      <c r="I8">
+        <v>-0.08</v>
+      </c>
+      <c r="J8">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="K8">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="L8">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="M8">
+        <v>-0.97</v>
+      </c>
+      <c r="N8">
+        <v>-0.03</v>
+      </c>
+      <c r="O8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.13</v>
+      </c>
+      <c r="H9">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="J9">
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.8999999999999961E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="M9">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.35</v>
+      </c>
+      <c r="O9">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>0.15920000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>1.27</v>
+      </c>
+      <c r="G12">
+        <v>0.62</v>
+      </c>
+      <c r="H12">
+        <v>0.03</v>
+      </c>
+      <c r="I12">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="J12">
+        <v>-0.34</v>
+      </c>
+      <c r="K12">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="L12">
+        <v>-0.251</v>
+      </c>
+      <c r="M12">
+        <v>-0.84</v>
+      </c>
+      <c r="N12">
+        <v>-0.01</v>
+      </c>
+      <c r="O12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15">
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>1.67</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.13</v>
+      </c>
+      <c r="I13">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="J13">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="K13">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="L13">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="M13">
+        <v>-0.66</v>
+      </c>
+      <c r="N13">
+        <v>0.22</v>
+      </c>
+      <c r="O13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G14">
+        <v>0.52</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="J14">
+        <v>4.4999999999999984E-2</v>
+      </c>
+      <c r="K14">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="N14">
+        <v>0.23</v>
+      </c>
+      <c r="O14">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <v>0.21429999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>2.54</v>
+      </c>
+      <c r="G17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.31</v>
+      </c>
+      <c r="I17">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="J17">
+        <v>-0.439</v>
+      </c>
+      <c r="K17">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="L17">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="M17">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N17">
+        <v>0.46</v>
+      </c>
+      <c r="O17">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>2.59</v>
+      </c>
+      <c r="G18">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.26</v>
+      </c>
+      <c r="I18">
+        <v>-0.114</v>
+      </c>
+      <c r="J18">
+        <v>-0.42</v>
+      </c>
+      <c r="K18">
+        <v>-0.44</v>
+      </c>
+      <c r="L18">
+        <v>-0.23</v>
+      </c>
+      <c r="M18">
+        <v>-0.42</v>
+      </c>
+      <c r="N18">
+        <v>0.7</v>
+      </c>
+      <c r="O18">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15">
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="G19">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="H19">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="J19">
+        <v>1.9000000000000017E-2</v>
+      </c>
+      <c r="K19">
+        <v>4.0999999999999981E-2</v>
+      </c>
+      <c r="L19">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="M19">
+        <v>0.14000000000000007</v>
+      </c>
+      <c r="N19">
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="O19">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>0.10759999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>4.33</v>
+      </c>
+      <c r="G22">
+        <v>1.49</v>
+      </c>
+      <c r="H22">
+        <v>0.45</v>
+      </c>
+      <c r="I22">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="J22">
+        <v>-0.37</v>
+      </c>
+      <c r="K22">
+        <v>-0.35</v>
+      </c>
+      <c r="L22">
+        <v>-0.151</v>
+      </c>
+      <c r="M22">
+        <v>-0.31</v>
+      </c>
+      <c r="N22">
+        <v>1.08</v>
+      </c>
+      <c r="O22">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>3.44</v>
+      </c>
+      <c r="G23">
+        <v>1.34</v>
+      </c>
+      <c r="H23">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I23">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="J23">
+        <v>-0.3</v>
+      </c>
+      <c r="K23">
+        <v>-0.26</v>
+      </c>
+      <c r="L23">
+        <v>-0.01</v>
+      </c>
+      <c r="M23">
+        <v>-0.2</v>
+      </c>
+      <c r="N23">
+        <v>1.21</v>
+      </c>
+      <c r="O23">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="G24">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H24">
+        <v>9.8000000000000032E-2</v>
+      </c>
+      <c r="I24">
+        <v>4.9999999999999906E-3</v>
+      </c>
+      <c r="J24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K24">
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M24">
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="O24">
+        <v>0.10999999999999988</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15">
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26">
+        <v>0.17939999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F13Elox" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="53">
   <si>
     <t>MP1</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Mater.</t>
   </si>
   <si>
-    <t>fräs</t>
-  </si>
-  <si>
     <t>polier</t>
   </si>
   <si>
@@ -156,16 +153,31 @@
     <t>orient</t>
   </si>
   <si>
-    <t>auss</t>
+    <t>MittVerz</t>
   </si>
   <si>
-    <t>aus</t>
+    <t>elox</t>
   </si>
   <si>
-    <t>in</t>
+    <t>ger.</t>
   </si>
   <si>
-    <t>MittVerz</t>
+    <t>Standger.</t>
+  </si>
+  <si>
+    <t>polir</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>kein</t>
+  </si>
+  <si>
+    <t>Elox</t>
   </si>
 </sst>
 </file>
@@ -175,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,16 +229,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -234,11 +284,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -248,6 +370,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -364,9 +499,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15490598511251694"/>
+          <c:x val="0.15490598511251708"/>
           <c:y val="5.2976318501091552E-2"/>
-          <c:w val="0.84481761895147789"/>
+          <c:w val="0.84481761895147833"/>
           <c:h val="0.9383193350831146"/>
         </c:manualLayout>
       </c:layout>
@@ -1205,11 +1340,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54728192"/>
-        <c:axId val="54730112"/>
+        <c:axId val="59076992"/>
+        <c:axId val="59078912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54728192"/>
+        <c:axId val="59076992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,8 +1373,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45782926724323414"/>
-              <c:y val="0.90769489766984601"/>
+              <c:x val="0.45782926724323447"/>
+              <c:y val="0.90769489766984701"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1256,14 +1391,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54730112"/>
+        <c:crossAx val="59078912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54730112"/>
+        <c:axId val="59078912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,6 +1423,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1303,7 +1439,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54728192"/>
+        <c:crossAx val="59076992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1331,10 +1467,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37391707184143003"/>
-          <c:y val="0.10087522764819924"/>
-          <c:w val="0.30003556932432662"/>
-          <c:h val="0.15090637049785868"/>
+          <c:x val="0.37391707184143042"/>
+          <c:y val="0.1008752276481993"/>
+          <c:w val="0.3000355693243269"/>
+          <c:h val="0.15090637049785888"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1355,7 +1491,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1437,8 +1573,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C5:M30" totalsRowShown="0">
-  <autoFilter ref="C5:M30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="C5:M31" totalsRowShown="0">
+  <autoFilter ref="C5:M31"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1457,8 +1593,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="C4:M29" totalsRowShown="0">
-  <autoFilter ref="C4:M29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="C4:M30" totalsRowShown="0">
+  <autoFilter ref="C4:M30"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1477,8 +1613,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D5:N30" totalsRowShown="0">
-  <autoFilter ref="D5:N30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="D5:N31" totalsRowShown="0">
+  <autoFilter ref="D5:N31"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Nr."/>
     <tableColumn id="2" name="MP1"/>
@@ -1781,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:M26"/>
+      <selection activeCell="D27" sqref="D27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3461,6 +3597,44 @@
       </c>
       <c r="M27">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="D28">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G28">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.112</v>
+      </c>
+      <c r="I28">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J28">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M28">
+        <v>0.28299999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3475,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:M29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4435,6 +4609,41 @@
       </c>
       <c r="M30" s="2">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.22800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4448,10 +4657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:M28"/>
+      <selection activeCell="D29" sqref="D29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5404,6 +5613,41 @@
       </c>
       <c r="M29" s="2">
         <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.32300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5416,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:N29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6336,7 +6580,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="N29" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="4:14">
@@ -6372,6 +6616,41 @@
       </c>
       <c r="N30" s="2">
         <v>4.01</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14">
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.41199999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6384,14 +6663,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="2:13" ht="21">
+      <c r="F1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="2" spans="2:13">
       <c r="D2" t="s">
         <v>0</v>
@@ -6718,14 +7002,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D6:O26"/>
+  <dimension ref="C4:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
+    <row r="4" spans="4:15" ht="28.5">
+      <c r="H4" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="6" spans="4:15">
       <c r="D6" t="s">
         <v>39</v>
@@ -6772,603 +7061,830 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="G7">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="H7">
-        <v>-0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="I7">
-        <v>-7.3999999999999996E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="J7">
-        <v>-0.23100000000000001</v>
+        <v>-0.25700000000000001</v>
       </c>
       <c r="K7">
-        <v>-0.27400000000000002</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="L7">
-        <v>-0.23200000000000001</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="M7">
-        <v>-1.06</v>
+        <v>-0.97</v>
       </c>
       <c r="N7">
-        <v>-0.38</v>
+        <v>-0.03</v>
       </c>
       <c r="O7">
-        <v>-0.43</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H8">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="I8">
-        <v>-0.08</v>
+        <v>-0.107</v>
       </c>
       <c r="J8">
-        <v>-0.25700000000000001</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="K8">
-        <v>-0.29299999999999998</v>
+        <v>-0.29899999999999999</v>
       </c>
       <c r="L8">
-        <v>-0.23300000000000001</v>
+        <v>-0.252</v>
       </c>
       <c r="M8">
-        <v>-0.97</v>
+        <v>-1.01</v>
       </c>
       <c r="N8">
-        <v>-0.03</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="O8">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="4:15">
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>0.28999999999999998</v>
+        <f>F8-F7</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="G9">
-        <v>0.13</v>
+        <f>G8-G7</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="H9">
-        <v>6.9999999999999993E-2</v>
+        <f>0.06-0.05</f>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="I9">
+        <f>0.107-0.08</f>
+        <v>2.6999999999999996E-2</v>
+      </c>
+      <c r="J9">
+        <f>0.29-0.257</f>
+        <v>3.2999999999999974E-2</v>
+      </c>
+      <c r="K9">
+        <f>0.299-0.293</f>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="J9">
-        <v>2.5999999999999995E-2</v>
-      </c>
-      <c r="K9">
-        <v>1.8999999999999961E-2</v>
-      </c>
       <c r="L9">
-        <v>1.0000000000000009E-3</v>
+        <f>0.252-0.233</f>
+        <v>1.8999999999999989E-2</v>
       </c>
       <c r="M9">
-        <v>9.000000000000008E-2</v>
+        <f>1.01-0.97</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="N9">
-        <v>0.35</v>
+        <f>0.14-0.03</f>
+        <v>0.11000000000000001</v>
       </c>
       <c r="O9">
-        <v>0.61</v>
+        <f>0.18-0.12</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="4:15">
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="4:15">
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11">
-        <v>0.15920000000000001</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="18">
+        <f>AVERAGE(F9:O9)</f>
+        <v>3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="4:15">
       <c r="D12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="G12">
-        <v>0.62</v>
+        <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I12">
-        <v>-0.10100000000000001</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="J12">
-        <v>-0.34</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="K12">
-        <v>-0.39600000000000002</v>
+        <v>-0.45200000000000001</v>
       </c>
       <c r="L12">
-        <v>-0.251</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="M12">
-        <v>-0.84</v>
+        <v>-0.66</v>
       </c>
       <c r="N12">
-        <v>-0.01</v>
+        <v>0.22</v>
       </c>
       <c r="O12">
-        <v>0.7</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="13" spans="4:15">
       <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13">
-        <v>1.67</v>
-      </c>
-      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1.58</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="H13" s="14">
         <v>0.1</v>
       </c>
-      <c r="H13">
-        <v>0.13</v>
-      </c>
-      <c r="I13">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="J13">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="K13">
-        <v>-0.45200000000000001</v>
-      </c>
-      <c r="L13">
-        <v>-0.26900000000000002</v>
-      </c>
-      <c r="M13">
-        <v>-0.66</v>
-      </c>
-      <c r="N13">
+      <c r="I13" s="15">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J13" s="16">
+        <v>-0.439</v>
+      </c>
+      <c r="K13" s="16">
+        <v>-0.48299999999999998</v>
+      </c>
+      <c r="L13" s="16">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="M13" s="16">
+        <v>-0.72</v>
+      </c>
+      <c r="N13" s="16">
         <v>0.22</v>
       </c>
-      <c r="O13">
-        <v>1.29</v>
+      <c r="O13" s="17">
+        <v>1.24</v>
       </c>
     </row>
     <row r="14" spans="4:15">
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="G14">
-        <v>0.52</v>
-      </c>
-      <c r="H14">
-        <v>0.1</v>
+        <f>F12-F13</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="G14" s="19">
+        <f>G13-G12</f>
+        <v>0.64</v>
+      </c>
+      <c r="H14" s="19">
+        <f>H12-H13</f>
+        <v>0.03</v>
       </c>
       <c r="I14">
-        <v>4.0000000000000036E-3</v>
+        <f>0.14-0.097</f>
+        <v>4.300000000000001E-2</v>
       </c>
       <c r="J14">
-        <v>4.4999999999999984E-2</v>
+        <f>0.439-0.385</f>
+        <v>5.3999999999999992E-2</v>
       </c>
       <c r="K14">
-        <v>5.5999999999999994E-2</v>
+        <f>0.483-0.452</f>
+        <v>3.0999999999999972E-2</v>
       </c>
       <c r="L14">
-        <v>1.8000000000000016E-2</v>
+        <f>0.303-0.269</f>
+        <v>3.3999999999999975E-2</v>
       </c>
       <c r="M14">
-        <v>0.17999999999999994</v>
+        <f>0.72-0.66</f>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="N14">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.59000000000000008</v>
+        <f>1.29-1.24</f>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="15" spans="4:15">
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="4:15">
       <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="18">
+        <f>AVERAGE(F14:O14)</f>
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="D17" t="s">
         <v>48</v>
-      </c>
-      <c r="F16">
-        <v>0.21429999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15">
-      <c r="D17" t="s">
-        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
       </c>
       <c r="F17">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="G17">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H17">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I17">
-        <v>-0.11600000000000001</v>
+        <v>-0.114</v>
       </c>
       <c r="J17">
-        <v>-0.439</v>
+        <v>-0.42</v>
       </c>
       <c r="K17">
-        <v>-0.48099999999999998</v>
+        <v>-0.44</v>
       </c>
       <c r="L17">
-        <v>-0.23400000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="M17">
-        <v>-0.56000000000000005</v>
+        <v>-0.42</v>
       </c>
       <c r="N17">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="O17">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
       <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="I18" s="16">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="J18" s="14">
+        <v>-0.502</v>
+      </c>
+      <c r="K18" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="L18" s="16">
+        <v>-0.21</v>
+      </c>
+      <c r="M18" s="16">
+        <v>-0.47</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="O18" s="17">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="F18">
-        <v>2.59</v>
-      </c>
-      <c r="G18">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.26</v>
-      </c>
-      <c r="I18">
-        <v>-0.114</v>
-      </c>
-      <c r="J18">
-        <v>-0.42</v>
-      </c>
-      <c r="K18">
-        <v>-0.44</v>
-      </c>
-      <c r="L18">
-        <v>-0.23</v>
-      </c>
-      <c r="M18">
-        <v>-0.42</v>
-      </c>
-      <c r="N18">
-        <v>0.7</v>
-      </c>
-      <c r="O18">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15">
-      <c r="D19" t="s">
+      <c r="F19">
+        <f>F17-F18</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="G19">
+        <f>G17-G18</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="H19">
+        <f>H18-H17</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="I19">
+        <f>0.145-0.114</f>
+        <v>3.0999999999999986E-2</v>
+      </c>
+      <c r="J19">
+        <f>0.5-0.42</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="K19">
+        <f>0.51-0.44</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L19">
+        <f>0.23-0.21</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M19">
+        <f>0.47-0.42</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="N19">
+        <f>N17-N18</f>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="O19">
+        <f>O18-O17</f>
+        <v>1.0000000000000231E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="F19">
-        <v>4.9999999999999822E-2</v>
-      </c>
-      <c r="G19">
-        <v>4.9999999999999822E-2</v>
-      </c>
-      <c r="H19">
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="I19">
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="J19">
-        <v>1.9000000000000017E-2</v>
-      </c>
-      <c r="K19">
-        <v>4.0999999999999981E-2</v>
-      </c>
-      <c r="L19">
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="M19">
-        <v>0.14000000000000007</v>
-      </c>
-      <c r="N19">
-        <v>0.23999999999999994</v>
-      </c>
-      <c r="O19">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15">
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15">
-      <c r="D21" t="s">
+      <c r="F21" s="18">
+        <f>AVERAGE(F19:O19)</f>
+        <v>4.9100000000000019E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="D22" t="s">
         <v>48</v>
-      </c>
-      <c r="F21">
-        <v>0.10759999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15">
-      <c r="D22" t="s">
-        <v>41</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
       <c r="F22">
-        <v>4.33</v>
+        <v>3.44</v>
       </c>
       <c r="G22">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="H22">
-        <v>0.45</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I22">
-        <v>-7.0999999999999994E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="J22">
-        <v>-0.37</v>
+        <v>-0.3</v>
       </c>
       <c r="K22">
-        <v>-0.35</v>
+        <v>-0.26</v>
       </c>
       <c r="L22">
-        <v>-0.151</v>
+        <v>-0.01</v>
       </c>
       <c r="M22">
-        <v>-0.31</v>
+        <v>-0.2</v>
       </c>
       <c r="N22">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="O22">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
       <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="13">
+        <v>4.43</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1.48</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="16">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="J23" s="16">
+        <v>-0.433</v>
+      </c>
+      <c r="K23" s="16">
+        <v>-0.41</v>
+      </c>
+      <c r="L23" s="16">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="M23" s="16">
+        <v>-0.36</v>
+      </c>
+      <c r="N23" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O23" s="17">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="F23">
-        <v>3.44</v>
-      </c>
-      <c r="G23">
-        <v>1.34</v>
-      </c>
-      <c r="H23">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="I23">
-        <v>-6.6000000000000003E-2</v>
-      </c>
-      <c r="J23">
-        <v>-0.3</v>
-      </c>
-      <c r="K23">
-        <v>-0.26</v>
-      </c>
-      <c r="L23">
-        <v>-0.01</v>
-      </c>
-      <c r="M23">
-        <v>-0.2</v>
-      </c>
-      <c r="N23">
-        <v>1.21</v>
-      </c>
-      <c r="O23">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15">
-      <c r="D24" t="s">
+      <c r="F24">
+        <f>F23-F22</f>
+        <v>0.98999999999999977</v>
+      </c>
+      <c r="G24">
+        <f>G23-G22</f>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="H24" s="19">
+        <f>H23-H22</f>
+        <v>4.8000000000000043E-2</v>
+      </c>
+      <c r="I24">
+        <f>0.132-0.066</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J24">
+        <f>0.433-0.3</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K24">
+        <f>0.26-0.41</f>
+        <v>-0.14999999999999997</v>
+      </c>
+      <c r="L24">
+        <f>0.211-0.01</f>
+        <v>0.20099999999999998</v>
+      </c>
+      <c r="M24">
+        <f>0.36-0.2</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="N24" s="19">
+        <f>N22-N23</f>
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="O24">
+        <f>O23-O22</f>
+        <v>0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="F24">
-        <v>0.89000000000000012</v>
-      </c>
-      <c r="G24">
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="H24">
-        <v>9.8000000000000032E-2</v>
-      </c>
-      <c r="I24">
-        <v>4.9999999999999906E-3</v>
-      </c>
-      <c r="J24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K24">
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="L24">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="M24">
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="N24">
-        <v>0.12999999999999989</v>
-      </c>
-      <c r="O24">
-        <v>0.10999999999999988</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15">
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="F26" s="18">
+        <f>AVERAGE(F24:O24)</f>
+        <v>0.20579999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="26.25">
+      <c r="H29" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="J25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15">
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26">
-        <v>0.17939999999999995</v>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H31">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.112</v>
+      </c>
+      <c r="J31">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K31">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="N31">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.123</v>
+      </c>
+      <c r="H32" s="10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I32" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J32" s="10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0.123</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14">
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.155</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I33" s="10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J33" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14">
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I34" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J34" s="10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0.41199999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="F13Elox" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
   <si>
     <t>MP1</t>
   </si>
@@ -159,9 +159,6 @@
     <t>elox</t>
   </si>
   <si>
-    <t>ger.</t>
-  </si>
-  <si>
     <t>Standger.</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   <si>
     <t>Elox</t>
   </si>
+  <si>
+    <t>´0,64</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,15 +241,6 @@
       <b/>
       <i/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -382,7 +373,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -499,10 +490,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15490598511251708"/>
-          <c:y val="5.2976318501091552E-2"/>
-          <c:w val="0.84481761895147833"/>
-          <c:h val="0.9383193350831146"/>
+          <c:x val="0.15490598511251713"/>
+          <c:y val="9.9787329830899885E-2"/>
+          <c:w val="0.84481761895147844"/>
+          <c:h val="0.86839039096564019"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -535,17 +526,6 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -558,34 +538,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.26839391594752493</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15</c:v>
+                    <c:v>0.28754539283594255</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.09</c:v>
+                    <c:v>0.17093074697501884</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4E-2</c:v>
+                    <c:v>2.6746204910681699E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.06</c:v>
+                    <c:v>0.11083757178981074</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.1999999999999999E-2</c:v>
+                    <c:v>4.4177301716245135E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.1999999999999999E-2</c:v>
+                    <c:v>4.3189807560628832E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.09</c:v>
+                    <c:v>0.1631311273359011</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.15</c:v>
+                    <c:v>0.29339571529188013</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.28270229612667475</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -597,34 +577,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.26839391594752493</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15</c:v>
+                    <c:v>0.28754539283594255</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.09</c:v>
+                    <c:v>0.17093074697501884</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4E-2</c:v>
+                    <c:v>2.6746204910681699E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.06</c:v>
+                    <c:v>0.11083757178981074</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.1999999999999999E-2</c:v>
+                    <c:v>4.4177301716245135E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.1999999999999999E-2</c:v>
+                    <c:v>4.3189807560628832E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.09</c:v>
+                    <c:v>0.1631311273359011</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.15</c:v>
+                    <c:v>0.29339571529188013</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.28270229612667475</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -682,34 +662,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.45333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.06</c:v>
+                  <c:v>-6.055555555555555E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.107</c:v>
+                  <c:v>-0.10722222222222226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.28999999999999998</c:v>
+                  <c:v>-0.29444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.29899999999999999</c:v>
+                  <c:v>-0.29888888888888882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.252</c:v>
+                  <c:v>-0.25222222222222229</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.01</c:v>
+                  <c:v>-1.0100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.14000000000000001</c:v>
+                  <c:v>-0.13888888888888892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12</c:v>
+                  <c:v>0.12166666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,17 +723,6 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -766,34 +735,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.12</c:v>
+                    <c:v>0.24183236908412872</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.1</c:v>
+                    <c:v>0.20366122541328832</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.06</c:v>
+                    <c:v>0.12309495692778252</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7999999999999999E-2</c:v>
+                    <c:v>3.7059695797882576E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5000000000000001E-2</c:v>
+                    <c:v>5.3140825816138264E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.3E-2</c:v>
+                    <c:v>4.8242806935880012E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2999999999999999E-2</c:v>
+                    <c:v>2.7120588411564762E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.06</c:v>
+                    <c:v>0.12271490279677109</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.11</c:v>
+                    <c:v>0.22500526309633878</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.11</c:v>
+                    <c:v>0.22799122790142562</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -805,34 +774,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.12</c:v>
+                    <c:v>0.24183236908412872</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.1</c:v>
+                    <c:v>0.20366122541328832</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.06</c:v>
+                    <c:v>0.12309495692778252</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7999999999999999E-2</c:v>
+                    <c:v>3.7059695797882576E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5000000000000001E-2</c:v>
+                    <c:v>5.3140825816138264E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.3E-2</c:v>
+                    <c:v>4.8242806935880012E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2999999999999999E-2</c:v>
+                    <c:v>2.7120588411564762E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.06</c:v>
+                    <c:v>0.12271490279677109</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.11</c:v>
+                    <c:v>0.22500526309633878</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.11</c:v>
+                    <c:v>0.22799122790142562</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -890,34 +859,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.58</c:v>
+                  <c:v>1.5825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74</c:v>
+                  <c:v>0.74399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>9.9500000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14000000000000001</c:v>
+                  <c:v>-0.13949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.439</c:v>
+                  <c:v>-0.42849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.48299999999999998</c:v>
+                  <c:v>-0.4830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.30299999999999999</c:v>
+                  <c:v>-0.30249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.72</c:v>
+                  <c:v>-0.71800000000000019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22</c:v>
+                  <c:v>0.21800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.24</c:v>
+                  <c:v>1.2369999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,17 +920,6 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -974,34 +932,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.08</c:v>
+                    <c:v>0.15532309280300863</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.1</c:v>
+                    <c:v>0.19540713233764312</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1</c:v>
+                    <c:v>0.2003227658712704</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5999999999999999E-2</c:v>
+                    <c:v>5.4820280534622783E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.9000000000000001E-2</c:v>
+                    <c:v>6.1353162317160648E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.04</c:v>
+                    <c:v>8.544619729150621E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.12</c:v>
+                    <c:v>0.23671879831074727</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.13</c:v>
+                    <c:v>0.27101903215359896</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.28250011644152223</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.16</c:v>
+                    <c:v>0.322814514119663</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1013,34 +971,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.08</c:v>
+                    <c:v>0.15532309280300863</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.1</c:v>
+                    <c:v>0.19540713233764312</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1</c:v>
+                    <c:v>0.2003227658712704</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5999999999999999E-2</c:v>
+                    <c:v>5.4820280534622783E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.9000000000000001E-2</c:v>
+                    <c:v>6.1353162317160648E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.04</c:v>
+                    <c:v>8.544619729150621E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.12</c:v>
+                    <c:v>0.23671879831074727</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.13</c:v>
+                    <c:v>0.27101903215359896</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.28250011644152223</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.16</c:v>
+                    <c:v>0.322814514119663</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1098,13 +1056,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>2.5290000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>1.1254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>0.37349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.14499999999999999</c:v>
@@ -1113,19 +1071,19 @@
                   <c:v>-0.502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.51</c:v>
+                  <c:v>-0.51200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.21</c:v>
+                  <c:v>-0.20600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.47</c:v>
+                  <c:v>-0.46750000000000014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67</c:v>
+                  <c:v>0.67200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4700000000000002</c:v>
+                  <c:v>2.4675000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,17 +1117,6 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1182,34 +1129,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.09</c:v>
+                    <c:v>0.17887072662150952</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.09</c:v>
+                    <c:v>0.17425027372930171</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.05</c:v>
+                    <c:v>0.1004660193927857</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7000000000000001E-2</c:v>
+                    <c:v>3.4732057086698589E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.7E-2</c:v>
+                    <c:v>5.7754015581511185E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.04</c:v>
+                    <c:v>7.1598294598919282E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.7E-2</c:v>
+                    <c:v>5.757375132910187E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.08</c:v>
+                    <c:v>0.15544164584550019</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.29528353902825849</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.1</c:v>
+                    <c:v>0.41230896692956437</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1221,34 +1168,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0.09</c:v>
+                    <c:v>0.17887072662150952</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.09</c:v>
+                    <c:v>0.17425027372930171</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.05</c:v>
+                    <c:v>0.1004660193927857</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7000000000000001E-2</c:v>
+                    <c:v>3.4732057086698589E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.7E-2</c:v>
+                    <c:v>5.7754015581511185E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.04</c:v>
+                    <c:v>7.1598294598919282E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.7E-2</c:v>
+                    <c:v>5.757375132910187E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.08</c:v>
+                    <c:v>0.15544164584550019</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.14000000000000001</c:v>
+                    <c:v>0.29528353902825849</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.1</c:v>
+                    <c:v>0.41230896692956437</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1306,45 +1253,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.43</c:v>
+                  <c:v>4.4249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.48</c:v>
+                  <c:v>1.4750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.39750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.433</c:v>
+                  <c:v>-0.4325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.41</c:v>
+                  <c:v>-0.41000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.36</c:v>
+                  <c:v>-0.35599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1014999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.01</c:v>
+                  <c:v>4.0075000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59076992"/>
-        <c:axId val="59078912"/>
+        <c:axId val="59702272"/>
+        <c:axId val="57938688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59076992"/>
+        <c:axId val="59702272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,12 +1303,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" i="1">
+                  <a:defRPr sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" i="1">
+                  <a:rPr lang="en-US" sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Messpunkte</a:t>
@@ -1373,8 +1320,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45782926724323447"/>
-              <c:y val="0.90769489766984701"/>
+              <c:x val="0.49505718146504279"/>
+              <c:y val="0.8876309935373915"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1391,14 +1338,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59078912"/>
+        <c:crossAx val="57938688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59078912"/>
+        <c:axId val="57938688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,20 +1357,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="1">
+                  <a:defRPr sz="1400" b="1" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" i="1">
+                  <a:rPr lang="en-US" sz="1400" b="1" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>x = ( ± ∆) [mm]</a:t>
+                  <a:t>x = ( ± s) [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8275264276381657E-2"/>
+              <c:y val="0.40740990587849818"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1439,7 +1393,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59076992"/>
+        <c:crossAx val="59702272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1447,30 +1401,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37391707184143042"/>
-          <c:y val="0.1008752276481993"/>
-          <c:w val="0.3000355693243269"/>
-          <c:h val="0.15090637049785888"/>
+          <c:x val="0.41984165689082803"/>
+          <c:y val="0.1690923105432923"/>
+          <c:w val="0.30003556932432696"/>
+          <c:h val="0.15090637049785893"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1497,24 +1435,639 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.0000000000000097E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-8.99999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.9999999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-6.0000000000000102E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.9999999999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000000000000231E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.98999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4.8000000000000043E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>-6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>-0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>-0.14999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.35999999999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="55213440"/>
+        <c:axId val="55215616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55213440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41068306720016884"/>
+              <c:y val="0.86604394797312412"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55215616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55215616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Offsetwerte zu Vorprozess [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.992077321689829E-2"/>
+              <c:y val="0.12614077270718352"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55213440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32780338182575242"/>
+          <c:y val="0.12951034301204509"/>
+          <c:w val="0.37157404053741883"/>
+          <c:h val="0.21469420511237111"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330995</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1920,7 +2473,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:M27"/>
+      <selection activeCell="D24" sqref="D24:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3601,7 +4154,7 @@
     </row>
     <row r="28" spans="2:25">
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>5.3390000000000004</v>
@@ -3652,7 +4205,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:M30"/>
+      <selection activeCell="D27" sqref="D27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4613,7 +5166,7 @@
     </row>
     <row r="31" spans="3:13">
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>0.24199999999999999</v>
@@ -4659,8 +5212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:M29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5617,7 +6170,7 @@
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2">
         <v>0.155</v>
@@ -5662,8 +6215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6620,7 +7173,7 @@
     </row>
     <row r="31" spans="4:14">
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2">
         <v>0.17899999999999999</v>
@@ -6665,15 +7218,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13" ht="21">
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -6716,34 +7269,34 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>0.45</v>
+        <v>0.45333333333333337</v>
       </c>
       <c r="E3">
         <v>0.52</v>
       </c>
       <c r="F3">
-        <v>-0.06</v>
+        <v>-6.055555555555555E-2</v>
       </c>
       <c r="G3">
-        <v>-0.107</v>
+        <v>-0.10722222222222226</v>
       </c>
       <c r="H3">
-        <v>-0.28999999999999998</v>
+        <v>-0.29444444444444445</v>
       </c>
       <c r="I3">
-        <v>-0.29899999999999999</v>
+        <v>-0.29888888888888882</v>
       </c>
       <c r="J3">
-        <v>-0.252</v>
+        <v>-0.25222222222222229</v>
       </c>
       <c r="K3">
-        <v>-1.01</v>
+        <v>-1.0100000000000002</v>
       </c>
       <c r="L3">
-        <v>-0.14000000000000001</v>
+        <v>-0.13888888888888892</v>
       </c>
       <c r="M3">
-        <v>0.12</v>
+        <v>0.12166666666666669</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -6751,34 +7304,34 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>1.58</v>
+        <v>1.5825</v>
       </c>
       <c r="E4">
-        <v>0.74</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="G4">
-        <v>-0.14000000000000001</v>
+        <v>-0.13949999999999996</v>
       </c>
       <c r="H4">
-        <v>-0.439</v>
+        <v>-0.42849999999999994</v>
       </c>
       <c r="I4">
-        <v>-0.48299999999999998</v>
+        <v>-0.4830000000000001</v>
       </c>
       <c r="J4">
-        <v>-0.30299999999999999</v>
+        <v>-0.30249999999999999</v>
       </c>
       <c r="K4">
-        <v>-0.72</v>
+        <v>-0.71800000000000019</v>
       </c>
       <c r="L4">
-        <v>0.22</v>
+        <v>0.21800000000000003</v>
       </c>
       <c r="M4">
-        <v>1.24</v>
+        <v>1.2369999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -6786,13 +7339,13 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>2.5299999999999998</v>
+        <v>2.5290000000000008</v>
       </c>
       <c r="E5">
-        <v>1.1299999999999999</v>
+        <v>1.1254999999999999</v>
       </c>
       <c r="F5">
-        <v>0.37</v>
+        <v>0.37349999999999994</v>
       </c>
       <c r="G5">
         <v>-0.14499999999999999</v>
@@ -6801,19 +7354,19 @@
         <v>-0.502</v>
       </c>
       <c r="I5">
-        <v>-0.51</v>
+        <v>-0.51200000000000001</v>
       </c>
       <c r="J5">
-        <v>-0.21</v>
+        <v>-0.20600000000000002</v>
       </c>
       <c r="K5">
-        <v>-0.47</v>
+        <v>-0.46750000000000014</v>
       </c>
       <c r="L5">
-        <v>0.67</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="M5">
-        <v>2.4700000000000002</v>
+        <v>2.4675000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -6821,34 +7374,34 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>4.43</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="E6">
-        <v>1.48</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
+        <v>0.39750000000000002</v>
       </c>
       <c r="G6">
         <v>-0.13200000000000001</v>
       </c>
       <c r="H6">
-        <v>-0.433</v>
+        <v>-0.4325</v>
       </c>
       <c r="I6">
-        <v>-0.41</v>
+        <v>-0.41000000000000003</v>
       </c>
       <c r="J6">
         <v>-0.21099999999999999</v>
       </c>
       <c r="K6">
-        <v>-0.36</v>
+        <v>-0.35599999999999998</v>
       </c>
       <c r="L6">
-        <v>1.1000000000000001</v>
+        <v>1.1014999999999999</v>
       </c>
       <c r="M6">
-        <v>4.01</v>
+        <v>4.0075000000000003</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6859,34 +7412,34 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>0.14000000000000001</v>
+        <v>0.26839391594752493</v>
       </c>
       <c r="E7">
-        <v>0.15</v>
+        <v>0.28754539283594255</v>
       </c>
       <c r="F7">
-        <v>0.09</v>
+        <v>0.17093074697501884</v>
       </c>
       <c r="G7">
-        <v>1.4E-2</v>
+        <v>2.6746204910681699E-2</v>
       </c>
       <c r="H7">
-        <v>0.06</v>
+        <v>0.11083757178981074</v>
       </c>
       <c r="I7">
-        <v>2.1999999999999999E-2</v>
+        <v>4.4177301716245135E-2</v>
       </c>
       <c r="J7">
-        <v>2.1999999999999999E-2</v>
+        <v>4.3189807560628832E-2</v>
       </c>
       <c r="K7">
-        <v>0.09</v>
+        <v>0.1631311273359011</v>
       </c>
       <c r="L7">
-        <v>0.15</v>
+        <v>0.29339571529188013</v>
       </c>
       <c r="M7">
-        <v>0.14000000000000001</v>
+        <v>0.28270229612667475</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -6894,34 +7447,34 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>0.12</v>
+        <v>0.24183236908412872</v>
       </c>
       <c r="E8">
-        <v>0.1</v>
+        <v>0.20366122541328832</v>
       </c>
       <c r="F8">
-        <v>0.06</v>
+        <v>0.12309495692778252</v>
       </c>
       <c r="G8">
-        <v>1.7999999999999999E-2</v>
+        <v>3.7059695797882576E-2</v>
       </c>
       <c r="H8">
-        <v>2.5000000000000001E-2</v>
+        <v>5.3140825816138264E-2</v>
       </c>
       <c r="I8">
-        <v>2.3E-2</v>
+        <v>4.8242806935880012E-2</v>
       </c>
       <c r="J8">
-        <v>1.2999999999999999E-2</v>
+        <v>2.7120588411564762E-2</v>
       </c>
       <c r="K8">
-        <v>0.06</v>
+        <v>0.12271490279677109</v>
       </c>
       <c r="L8">
-        <v>0.11</v>
+        <v>0.22500526309633878</v>
       </c>
       <c r="M8">
-        <v>0.11</v>
+        <v>0.22799122790142562</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -6929,34 +7482,34 @@
         <v>37</v>
       </c>
       <c r="D9">
-        <v>0.08</v>
+        <v>0.15532309280300863</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0.19540713233764312</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.2003227658712704</v>
       </c>
       <c r="G9">
-        <v>2.5999999999999999E-2</v>
+        <v>5.4820280534622783E-2</v>
       </c>
       <c r="H9">
-        <v>2.9000000000000001E-2</v>
+        <v>6.1353162317160648E-2</v>
       </c>
       <c r="I9">
-        <v>0.04</v>
+        <v>8.544619729150621E-2</v>
       </c>
       <c r="J9">
-        <v>0.12</v>
+        <v>0.23671879831074727</v>
       </c>
       <c r="K9">
-        <v>0.13</v>
+        <v>0.27101903215359896</v>
       </c>
       <c r="L9">
-        <v>0.14000000000000001</v>
+        <v>0.28250011644152223</v>
       </c>
       <c r="M9">
-        <v>0.16</v>
+        <v>0.322814514119663</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -6964,34 +7517,34 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>0.09</v>
+        <v>0.17887072662150952</v>
       </c>
       <c r="E10">
-        <v>0.09</v>
+        <v>0.17425027372930171</v>
       </c>
       <c r="F10">
-        <v>0.05</v>
+        <v>0.1004660193927857</v>
       </c>
       <c r="G10">
-        <v>1.7000000000000001E-2</v>
+        <v>3.4732057086698589E-2</v>
       </c>
       <c r="H10">
-        <v>2.7E-2</v>
+        <v>5.7754015581511185E-2</v>
       </c>
       <c r="I10">
-        <v>0.04</v>
+        <v>7.1598294598919282E-2</v>
       </c>
       <c r="J10">
-        <v>2.7E-2</v>
+        <v>5.757375132910187E-2</v>
       </c>
       <c r="K10">
-        <v>0.08</v>
+        <v>0.15544164584550019</v>
       </c>
       <c r="L10">
-        <v>0.14000000000000001</v>
+        <v>0.29528353902825849</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.41230896692956437</v>
       </c>
     </row>
   </sheetData>
@@ -7002,17 +7555,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:O34"/>
+  <dimension ref="D4:O34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="4:15" ht="28.5">
       <c r="H4" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="4:15">
@@ -7176,34 +7729,34 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="4:15">
@@ -7217,7 +7770,7 @@
     </row>
     <row r="12" spans="4:15">
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -7296,9 +7849,8 @@
         <f>F12-F13</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="G14" s="19">
-        <f>G13-G12</f>
-        <v>0.64</v>
+      <c r="G14" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="H14" s="19">
         <f>H12-H13</f>
@@ -7337,34 +7889,34 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="O15" t="s">
         <v>49</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="4:15">
@@ -7373,12 +7925,12 @@
       </c>
       <c r="F16" s="18">
         <f>AVERAGE(F14:O14)</f>
-        <v>0.1032</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15">
+        <v>4.3555555555555535E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15">
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
@@ -7414,7 +7966,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="4:15">
       <c r="D18" t="s">
         <v>45</v>
       </c>
@@ -7449,7 +8001,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="4:15">
       <c r="D19" t="s">
         <v>42</v>
       </c>
@@ -7494,42 +8046,42 @@
         <v>1.0000000000000231E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="4:15">
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
         <v>49</v>
       </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" t="s">
-        <v>50</v>
-      </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15">
       <c r="D21" t="s">
         <v>44</v>
       </c>
@@ -7538,9 +8090,9 @@
         <v>4.9100000000000019E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="4:15">
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -7576,7 +8128,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="4:15">
       <c r="D23" t="s">
         <v>45</v>
       </c>
@@ -7611,7 +8163,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="4:15">
       <c r="D24" t="s">
         <v>42</v>
       </c>
@@ -7656,42 +8208,42 @@
         <v>0.35999999999999988</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="4:15">
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>49</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>49</v>
       </c>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" t="s">
-        <v>50</v>
-      </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15">
       <c r="D26" t="s">
         <v>44</v>
       </c>
@@ -7700,191 +8252,193 @@
         <v>0.20579999999999998</v>
       </c>
     </row>
-    <row r="29" spans="3:15" ht="26.25">
-      <c r="H29" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15">
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
+    <row r="29" spans="4:15">
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15">
       <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="G30">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H30">
+        <v>-0.01</v>
+      </c>
+      <c r="I30">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="J30">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="K30">
+        <v>-6.0000000000000097E-3</v>
+      </c>
+      <c r="L30">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="M30">
+        <v>-0.04</v>
+      </c>
+      <c r="N30">
+        <v>-0.11</v>
+      </c>
+      <c r="O30">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15">
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>-8.99999999999999E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.64</v>
+      </c>
+      <c r="H31">
+        <v>-0.03</v>
+      </c>
+      <c r="I31">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="J31">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="K31">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="L31">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="M31">
+        <v>-5.9999999999999901E-2</v>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15">
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="G31">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="H31">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I31">
-        <v>0.112</v>
-      </c>
-      <c r="J31">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="K31">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="L31">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="M31">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="N31">
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15">
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.24199999999999999</v>
+      <c r="O31">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15">
+      <c r="E32" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F32" s="10">
-        <v>0.20399999999999999</v>
+        <v>-6.0000000000000102E-2</v>
       </c>
       <c r="G32" s="10">
-        <v>0.123</v>
+        <v>-0.03</v>
       </c>
       <c r="H32" s="10">
-        <v>3.6999999999999998E-2</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="I32" s="10">
-        <v>5.2999999999999999E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="J32" s="10">
-        <v>4.8000000000000001E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="K32" s="10">
-        <v>2.7E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L32" s="10">
-        <v>0.123</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="M32" s="10">
-        <v>0.22500000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="N32" s="11">
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:14">
-      <c r="D33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.155</v>
+        <v>-2.9999999999999898E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.0000000000000231E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15">
+      <c r="E33" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="F33" s="10">
-        <v>0.19500000000000001</v>
+        <v>0.98999999999999977</v>
       </c>
       <c r="G33" s="12">
-        <v>0.2</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="H33" s="10">
-        <v>5.5E-2</v>
+        <v>4.8000000000000043E-2</v>
       </c>
       <c r="I33" s="10">
-        <v>6.0999999999999999E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="J33" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="K33" s="10">
-        <v>0.23699999999999999</v>
+        <v>-0.14999999999999997</v>
       </c>
       <c r="L33" s="10">
-        <v>0.27100000000000002</v>
+        <v>-0.20100000000000001</v>
       </c>
       <c r="M33" s="10">
-        <v>0.28299999999999997</v>
+        <v>-0.16</v>
       </c>
       <c r="N33" s="11">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14">
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H34" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I34" s="10">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="J34" s="10">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="K34" s="10">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0.155</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0.41199999999999998</v>
-      </c>
+        <v>-0.11</v>
+      </c>
+      <c r="O33">
+        <v>0.35999999999999988</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -490,9 +490,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15490598511251713"/>
-          <c:y val="9.9787329830899885E-2"/>
-          <c:w val="0.84481761895147844"/>
+          <c:x val="0.15490598511251719"/>
+          <c:y val="9.9787329830899912E-2"/>
+          <c:w val="0.84481761895147856"/>
           <c:h val="0.86839039096564019"/>
         </c:manualLayout>
       </c:layout>
@@ -1287,11 +1287,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59702272"/>
-        <c:axId val="57938688"/>
+        <c:axId val="66165760"/>
+        <c:axId val="66180608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59702272"/>
+        <c:axId val="66165760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,8 +1320,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49505718146504279"/>
-              <c:y val="0.8876309935373915"/>
+              <c:x val="0.49505718146504291"/>
+              <c:y val="0.88763099353739161"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1338,14 +1338,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57938688"/>
+        <c:crossAx val="66180608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57938688"/>
+        <c:axId val="66180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="3.8275264276381657E-2"/>
-              <c:y val="0.40740990587849818"/>
+              <c:y val="0.40740990587849824"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1393,7 +1393,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59702272"/>
+        <c:crossAx val="66165760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1405,10 +1405,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41984165689082803"/>
-          <c:y val="0.1690923105432923"/>
-          <c:w val="0.30003556932432696"/>
-          <c:h val="0.15090637049785893"/>
+          <c:x val="0.41984165689082809"/>
+          <c:y val="0.16909231054329235"/>
+          <c:w val="0.30003556932432701"/>
+          <c:h val="0.15090637049785896"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1868,11 +1868,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55213440"/>
-        <c:axId val="55215616"/>
+        <c:axId val="60988800"/>
+        <c:axId val="61011840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55213440"/>
+        <c:axId val="60988800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,8 +1901,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41068306720016884"/>
-              <c:y val="0.86604394797312412"/>
+              <c:x val="0.41068306720016889"/>
+              <c:y val="0.86604394797312423"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1919,14 +1919,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55215616"/>
+        <c:crossAx val="61011840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55215616"/>
+        <c:axId val="61011840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,7 +1946,19 @@
                   <a:rPr lang="en-US" sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte zu Vorprozess [mm]</a:t>
+                  <a:t>Offsetwerte </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>[mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1955,8 +1967,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.992077321689829E-2"/>
-              <c:y val="0.12614077270718352"/>
+              <c:x val="2.1731752600252681E-2"/>
+              <c:y val="0.35404094063070202"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1974,7 +1986,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55213440"/>
+        <c:crossAx val="60988800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1986,10 +1998,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32780338182575242"/>
-          <c:y val="0.12951034301204509"/>
-          <c:w val="0.37157404053741883"/>
-          <c:h val="0.21469420511237111"/>
+          <c:x val="0.32780338182575253"/>
+          <c:y val="0.12951034301204511"/>
+          <c:w val="0.37157404053741888"/>
+          <c:h val="0.21469420511237117"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2009,7 +2021,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5212,7 +5224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
@@ -6215,7 +6227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
@@ -7218,7 +7230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>

--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -490,9 +490,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15490598511251719"/>
-          <c:y val="9.9787329830899912E-2"/>
-          <c:w val="0.84481761895147856"/>
+          <c:x val="0.15490598511251724"/>
+          <c:y val="9.9787329830899954E-2"/>
+          <c:w val="0.84481761895147878"/>
           <c:h val="0.86839039096564019"/>
         </c:manualLayout>
       </c:layout>
@@ -1287,11 +1287,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66165760"/>
-        <c:axId val="66180608"/>
+        <c:axId val="61578240"/>
+        <c:axId val="61593088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66165760"/>
+        <c:axId val="61578240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1320,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49505718146504291"/>
+              <c:x val="0.49505718146504296"/>
               <c:y val="0.88763099353739161"/>
             </c:manualLayout>
           </c:layout>
@@ -1338,14 +1338,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66180608"/>
+        <c:crossAx val="61593088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66180608"/>
+        <c:axId val="61593088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="3.8275264276381657E-2"/>
-              <c:y val="0.40740990587849824"/>
+              <c:y val="0.40740990587849835"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1393,7 +1393,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66165760"/>
+        <c:crossAx val="61578240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1405,10 +1405,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41984165689082809"/>
-          <c:y val="0.16909231054329235"/>
-          <c:w val="0.30003556932432701"/>
-          <c:h val="0.15090637049785896"/>
+          <c:x val="0.41984165689082814"/>
+          <c:y val="0.16909231054329241"/>
+          <c:w val="0.30003556932432707"/>
+          <c:h val="0.15090637049785899"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1440,7 +1440,17 @@
   <c:lang val="de-DE"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12119844056137509"/>
+          <c:y val="3.3580078724439855E-2"/>
+          <c:w val="0.76960577688163612"/>
+          <c:h val="0.89824948473176169"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -1868,11 +1878,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60988800"/>
-        <c:axId val="61011840"/>
+        <c:axId val="60726656"/>
+        <c:axId val="60749696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60988800"/>
+        <c:axId val="60726656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,8 +1911,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41068306720016889"/>
-              <c:y val="0.86604394797312423"/>
+              <c:x val="0.4378477579504847"/>
+              <c:y val="0.81905422262806871"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1919,14 +1929,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61011840"/>
+        <c:crossAx val="60749696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61011840"/>
+        <c:axId val="60749696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,7 +1956,7 @@
                   <a:rPr lang="en-US" sz="1400" i="1">
                     <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Offsetwerte </a:t>
+                  <a:t> Verzug</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
@@ -1967,7 +1977,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1731752600252681E-2"/>
+              <c:x val="2.1731752600252684E-2"/>
               <c:y val="0.35404094063070202"/>
             </c:manualLayout>
           </c:layout>
@@ -1986,10 +1996,10 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60988800"/>
+        <c:crossAx val="60726656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1998,10 +2008,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32780338182575253"/>
-          <c:y val="0.12951034301204511"/>
+          <c:x val="0.3459131756592963"/>
+          <c:y val="0.1788495546243532"/>
           <c:w val="0.37157404053741888"/>
-          <c:h val="0.21469420511237117"/>
+          <c:h val="0.21469420511237125"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2021,7 +2031,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7230,7 +7240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
@@ -7570,7 +7580,7 @@
   <dimension ref="D4:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/VDKDA3ELOX.xlsx
+++ b/VDKDA3ELOX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F13Elox" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="F17Elox" sheetId="3" r:id="rId3"/>
     <sheet name="F18Elox" sheetId="4" r:id="rId4"/>
     <sheet name="Vergleich" sheetId="5" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="6" r:id="rId6"/>
+    <sheet name="Verzug" sheetId="6" r:id="rId6"/>
+    <sheet name="DiffVerzugStandardabw" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="57">
   <si>
     <t>MP1</t>
   </si>
@@ -178,6 +179,18 @@
   </si>
   <si>
     <t>´0,64</t>
+  </si>
+  <si>
+    <t>Standpolier</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>neg</t>
   </si>
 </sst>
 </file>
@@ -490,9 +503,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15490598511251724"/>
-          <c:y val="9.9787329830899954E-2"/>
-          <c:w val="0.84481761895147878"/>
+          <c:x val="0.15490598511251738"/>
+          <c:y val="9.9787329830900023E-2"/>
+          <c:w val="0.84481761895147911"/>
           <c:h val="0.86839039096564019"/>
         </c:manualLayout>
       </c:layout>
@@ -1287,11 +1300,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61578240"/>
-        <c:axId val="61593088"/>
+        <c:axId val="57666944"/>
+        <c:axId val="57763712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61578240"/>
+        <c:axId val="57666944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1333,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49505718146504296"/>
+              <c:x val="0.49505718146504313"/>
               <c:y val="0.88763099353739161"/>
             </c:manualLayout>
           </c:layout>
@@ -1338,14 +1351,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61593088"/>
+        <c:crossAx val="57763712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61593088"/>
+        <c:axId val="57763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1388,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="3.8275264276381657E-2"/>
-              <c:y val="0.40740990587849835"/>
+              <c:y val="0.40740990587849851"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1393,7 +1406,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61578240"/>
+        <c:crossAx val="57666944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1405,10 +1418,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41984165689082814"/>
-          <c:y val="0.16909231054329241"/>
-          <c:w val="0.30003556932432707"/>
-          <c:h val="0.15090637049785899"/>
+          <c:x val="0.41984165689082831"/>
+          <c:y val="0.16909231054329249"/>
+          <c:w val="0.30003556932432723"/>
+          <c:h val="0.15090637049785913"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1445,10 +1458,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12119844056137509"/>
+          <c:x val="0.12119844056137513"/>
           <c:y val="3.3580078724439855E-2"/>
-          <c:w val="0.76960577688163612"/>
-          <c:h val="0.89824948473176169"/>
+          <c:w val="0.76960577688163645"/>
+          <c:h val="0.89824948473176158"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1458,7 +1471,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$30</c:f>
+              <c:f>Verzug!$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1483,7 +1496,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:f>Verzug!$F$29:$O$29</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1521,7 +1534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$30:$O$30</c:f>
+              <c:f>Verzug!$F$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1564,7 +1577,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$31</c:f>
+              <c:f>Verzug!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1589,7 +1602,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:f>Verzug!$F$29:$O$29</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1627,7 +1640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$31:$O$31</c:f>
+              <c:f>Verzug!$F$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1670,7 +1683,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$32</c:f>
+              <c:f>Verzug!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1695,7 +1708,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:f>Verzug!$F$29:$O$29</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1733,7 +1746,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$32:$O$32</c:f>
+              <c:f>Verzug!$F$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1776,7 +1789,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$33</c:f>
+              <c:f>Verzug!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1801,7 +1814,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$F$29:$O$29</c:f>
+              <c:f>Verzug!$F$29:$O$29</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1839,7 +1852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$33:$O$33</c:f>
+              <c:f>Verzug!$F$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1878,11 +1891,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60726656"/>
-        <c:axId val="60749696"/>
+        <c:axId val="60122624"/>
+        <c:axId val="60223872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60726656"/>
+        <c:axId val="60122624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,8 +1924,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4378477579504847"/>
-              <c:y val="0.81905422262806871"/>
+              <c:x val="0.43784775795048492"/>
+              <c:y val="0.81905422262806904"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1929,14 +1942,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60749696"/>
+        <c:crossAx val="60223872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60749696"/>
+        <c:axId val="60223872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,7 +1990,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1731752600252684E-2"/>
+              <c:x val="2.1731752600252691E-2"/>
               <c:y val="0.35404094063070202"/>
             </c:manualLayout>
           </c:layout>
@@ -1996,7 +2009,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60726656"/>
+        <c:crossAx val="60122624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2008,10 +2021,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3459131756592963"/>
+          <c:x val="0.34591317565929647"/>
           <c:y val="0.1788495546243532"/>
           <c:w val="0.37157404053741888"/>
-          <c:h val="0.21469420511237125"/>
+          <c:h val="0.21469420511237142"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2031,8 +2044,962 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12119844056137517"/>
+          <c:y val="3.3580078724439855E-2"/>
+          <c:w val="0.76960577688163678"/>
+          <c:h val="0.89824948473176158"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$73:$M$73</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.100000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0999999999999954E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0000000000000044E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.5000000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9999999999999966E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.9999999999999932E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.0000000000000044E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.9999999999999516E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$77:$M$77</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.0000000000000062E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.0000000000000097E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$74:$M$74</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$78:$M$78</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>5.3999999999999992E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.61299999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7000000000000015E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0000000000000009E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-8.99999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.9999999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$75:$M$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>2.2999999999999993E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7999999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.16199999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.9000000000000024E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.3999999999999982E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.2999999999999992E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$79:$M$79</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.186</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9999999999999966E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.3000000000000005E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.4999999999999989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-6.0000000000000102E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.9999999999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000000000000231E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verzug!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$76:$M$76</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.5999999999999984E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7000000000000005E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.0000000000000071E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.5999999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.6000000000000003E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>DiffVerzugStandardabw!$D$80:$M$80</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.34400000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.3E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.9999999999999992E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.20600000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verzug!$F$29:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verzug!$F$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.98999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4.8000000000000043E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>-6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>-0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>-0.14999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.35999999999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="62969728"/>
+        <c:axId val="74067968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62969728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43784775795048503"/>
+              <c:y val="0.81905422262806926"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74067968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74067968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Materialverzug ± ∆s [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3542731983607068E-2"/>
+              <c:y val="0.24831405860432748"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="1">
+                <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62969728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34591317565929658"/>
+          <c:y val="0.1788495546243532"/>
+          <c:w val="0.37157404053741888"/>
+          <c:h val="0.21469420511237153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1">
+              <a:latin typeface="MS Reference Sans Serif" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2107,11 +3074,46 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="C4:M23" totalsRowCount="1">
   <autoFilter ref="C4:M22"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Spalte1" totalsRowFunction="average" totalsRowDxfId="10"/>
+    <tableColumn id="1" name="Nr." totalsRowFunction="average" totalsRowDxfId="10"/>
     <tableColumn id="2" name="MP1" totalsRowFunction="average" totalsRowDxfId="9"/>
     <tableColumn id="3" name="MP2" totalsRowFunction="average" totalsRowDxfId="8"/>
     <tableColumn id="4" name="MP3" totalsRowFunction="average" totalsRowDxfId="7"/>
@@ -2495,7 +3497,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:M24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2521,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -3870,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="2">
-        <f>SUBTOTAL(101,[Spalte1])</f>
+        <f>SUBTOTAL(101,[Nr.])</f>
         <v>9.5</v>
       </c>
       <c r="D23" s="2">
@@ -3962,7 +4964,7 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <f>STDEV(Tabelle1[Spalte1])</f>
+        <f>STDEV(Tabelle1[Nr.])</f>
         <v>5.3385391260156556</v>
       </c>
       <c r="D24">
@@ -5234,7 +6236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26:M26"/>
     </sheetView>
   </sheetViews>
@@ -6237,7 +7239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:N27"/>
     </sheetView>
   </sheetViews>
@@ -7238,10 +8240,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M10"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7567,6 +8569,186 @@
       </c>
       <c r="M10">
         <v>0.41230896692956437</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <f>ROUND(D7,3)</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:M11" si="0">ROUND(E7,3)</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.111</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:M14" si="1">ROUND(D8,3)</f>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.123</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.123</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.155</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.155</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.41199999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7579,8 +8761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D4:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8463,4 +9645,855 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B61:M80"/>
+  <sheetViews>
+    <sheetView topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="61" spans="2:13">
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E61">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F61">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G61">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H61">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.04</v>
+      </c>
+      <c r="J61">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K61">
+        <v>0.158</v>
+      </c>
+      <c r="L61">
+        <v>0.3</v>
+      </c>
+      <c r="M61">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="F62">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G62">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H62">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I62">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J62">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.123</v>
+      </c>
+      <c r="L62">
+        <v>0.221</v>
+      </c>
+      <c r="M62">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F63">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G63">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H63">
+        <v>0.114</v>
+      </c>
+      <c r="I63">
+        <v>0.12</v>
+      </c>
+      <c r="J63">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.182</v>
+      </c>
+      <c r="L63">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M63">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E64">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F64">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G64">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H64">
+        <v>0.121</v>
+      </c>
+      <c r="I64">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J64">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="M64">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E65">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F65">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G65">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H65">
+        <v>0.111</v>
+      </c>
+      <c r="I65">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J65">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M65">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F66">
+        <v>0.123</v>
+      </c>
+      <c r="G66">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H66">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I66">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J66">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K66">
+        <v>0.123</v>
+      </c>
+      <c r="L66">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>0.155</v>
+      </c>
+      <c r="E67">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F67">
+        <v>0.2</v>
+      </c>
+      <c r="G67">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H67">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I67">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J67">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K67">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L67">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M67">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E68">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H68">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I68">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J68">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K68">
+        <v>0.155</v>
+      </c>
+      <c r="L68">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="M68">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69">
+        <f>D65-D61</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:M69" si="0">E65-E61</f>
+        <v>1.0999999999999954E-2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999966E-3</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999932E-3</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999516E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:M72" si="1">D66-D62</f>
+        <v>-5.3999999999999992E-2</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>-0.61299999999999999</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>-1.7000000000000015E-2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999993E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>-0.186</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999966E-3</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>-5.3000000000000005E-2</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>-3.4999999999999989E-2</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>0.16199999999999998</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>8.9000000000000024E-2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999982E-2</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>-0.34400000000000003</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999984E-2</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>-6.3E-2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>-0.20600000000000002</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73">
+        <f>IF(D69&gt;0,D69,0)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:M73" si="2">IF(E69&gt;0,E69,0)</f>
+        <v>1.0999999999999954E-2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999966E-3</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999932E-3</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999516E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:M74" si="3">IF(D70&gt;0,D70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:M75" si="4">IF(D71&gt;0,D71,0)</f>
+        <v>2.2999999999999993E-2</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="4"/>
+        <v>0.16199999999999998</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>8.9000000000000024E-2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>7.3999999999999982E-2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="4"/>
+        <v>5.2999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:M76" si="5">IF(D72&gt;0,D72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>7.5999999999999984E-2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="5"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77">
+        <f>IF(D69&lt;0,ABS(D69),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:M77" si="6">IF(E69&lt;0,ABS(E69),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ref="D78:M80" si="7">IF(D70&lt;0,ABS(D70),0)</f>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>0.186</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>3.9999999999999966E-3</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>5.3000000000000005E-2</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>3.4999999999999989E-2</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="C80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="7"/>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="7"/>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>